--- a/database/industries/zeraat/zegoldasht/product/monthly.xlsx
+++ b/database/industries/zeraat/zegoldasht/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\zeraat\zegoldasht\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\zeraat\zegoldasht\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF564F40-ACEA-496D-8734-AB05F6C8B5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF3EB52-067A-4816-A517-2635E18AC8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>شیر</t>
@@ -778,12 +778,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -838,7 +838,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -895,7 +895,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -952,7 +952,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1007,7 +1007,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1176,7 +1176,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1388,7 +1388,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1445,7 +1445,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1454,17 +1454,17 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>3158954</v>
+        <v>3221551</v>
       </c>
       <c r="F11" s="11">
-        <v>3221551</v>
+        <v>3326312</v>
       </c>
       <c r="G11" s="11">
-        <v>3326312</v>
-      </c>
-      <c r="H11" s="11">
         <v>3217665</v>
       </c>
+      <c r="H11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="I11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1498,113 +1498,113 @@
       <c r="S11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>57</v>
+      <c r="T11" s="11">
+        <v>3809</v>
       </c>
       <c r="U11" s="11">
-        <v>3809</v>
+        <v>3701</v>
       </c>
       <c r="V11" s="11">
-        <v>3701</v>
+        <v>3648</v>
       </c>
       <c r="W11" s="11">
-        <v>3648</v>
+        <v>3676</v>
       </c>
       <c r="X11" s="11">
-        <v>3676</v>
+        <v>3616</v>
       </c>
       <c r="Y11" s="11">
-        <v>3616</v>
+        <v>3644</v>
       </c>
       <c r="Z11" s="11">
-        <v>3644</v>
+        <v>3550</v>
       </c>
       <c r="AA11" s="11">
-        <v>3550</v>
+        <v>3722</v>
       </c>
       <c r="AB11" s="11">
-        <v>3722</v>
+        <v>3949</v>
       </c>
       <c r="AC11" s="11">
-        <v>3949</v>
+        <v>4119</v>
       </c>
       <c r="AD11" s="11">
-        <v>4119</v>
+        <v>4278</v>
       </c>
       <c r="AE11" s="11">
-        <v>4278</v>
+        <v>4372</v>
       </c>
       <c r="AF11" s="11">
-        <v>4372</v>
+        <v>4539</v>
       </c>
       <c r="AG11" s="11">
-        <v>4539</v>
+        <v>4413</v>
       </c>
       <c r="AH11" s="11">
-        <v>4413</v>
+        <v>4211</v>
       </c>
       <c r="AI11" s="11">
-        <v>4211</v>
+        <v>4133</v>
       </c>
       <c r="AJ11" s="11">
-        <v>4133</v>
+        <v>4128</v>
       </c>
       <c r="AK11" s="11">
-        <v>4128</v>
+        <v>4169</v>
       </c>
       <c r="AL11" s="11">
-        <v>4169</v>
+        <v>4086</v>
       </c>
       <c r="AM11" s="11">
-        <v>4086</v>
+        <v>4237</v>
       </c>
       <c r="AN11" s="11">
-        <v>4237</v>
+        <v>4316</v>
       </c>
       <c r="AO11" s="11">
-        <v>4316</v>
+        <v>4444</v>
       </c>
       <c r="AP11" s="11">
-        <v>4444</v>
+        <v>4507</v>
       </c>
       <c r="AQ11" s="11">
-        <v>4507</v>
+        <v>4565</v>
       </c>
       <c r="AR11" s="11">
-        <v>4565</v>
+        <v>4758</v>
       </c>
       <c r="AS11" s="11">
-        <v>4758</v>
+        <v>4704</v>
       </c>
       <c r="AT11" s="11">
-        <v>4704</v>
+        <v>4512</v>
       </c>
       <c r="AU11" s="11">
-        <v>4512</v>
+        <v>4424</v>
       </c>
       <c r="AV11" s="11">
-        <v>4424</v>
+        <v>4381</v>
       </c>
       <c r="AW11" s="11">
-        <v>4381</v>
+        <v>4581</v>
       </c>
       <c r="AX11" s="11">
-        <v>4581</v>
+        <v>4615</v>
       </c>
       <c r="AY11" s="11">
-        <v>4615</v>
+        <v>4908</v>
       </c>
       <c r="AZ11" s="11">
-        <v>4908</v>
+        <v>5018</v>
       </c>
       <c r="BA11" s="11">
-        <v>5018</v>
+        <v>5048</v>
       </c>
       <c r="BB11" s="11">
-        <v>5048</v>
+        <v>5082</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1726,12 +1726,12 @@
       <c r="AP12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR12" s="13">
+      <c r="AQ12" s="13">
         <v>38295</v>
       </c>
+      <c r="AR12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1780,8 +1780,8 @@
       <c r="G13" s="11">
         <v>0</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
+      <c r="H13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>57</v>
@@ -1922,7 +1922,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1939,8 +1939,8 @@
       <c r="G14" s="13">
         <v>0</v>
       </c>
-      <c r="H14" s="13">
-        <v>0</v>
+      <c r="H14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="I14" s="13" t="s">
         <v>57</v>
@@ -2081,7 +2081,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2098,8 +2098,8 @@
       <c r="G15" s="11">
         <v>0</v>
       </c>
-      <c r="H15" s="11">
-        <v>0</v>
+      <c r="H15" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>57</v>
@@ -2240,7 +2240,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2249,157 +2249,157 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="F16" s="13">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="G16" s="13">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="H16" s="13">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I16" s="13">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="J16" s="13">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="K16" s="13">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L16" s="13">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="M16" s="13">
         <v>132</v>
       </c>
       <c r="N16" s="13">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="O16" s="13">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="P16" s="13">
+        <v>167</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>147</v>
+      </c>
+      <c r="R16" s="13">
+        <v>124</v>
+      </c>
+      <c r="S16" s="13">
+        <v>84</v>
+      </c>
+      <c r="T16" s="13">
+        <v>111</v>
+      </c>
+      <c r="U16" s="13">
+        <v>105</v>
+      </c>
+      <c r="V16" s="13">
+        <v>125</v>
+      </c>
+      <c r="W16" s="13">
+        <v>128</v>
+      </c>
+      <c r="X16" s="13">
+        <v>182</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>174</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>179</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>219</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>193</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>183</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>164</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>121</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>117</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>140</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>137</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>151</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>181</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>157</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>172</v>
+      </c>
+      <c r="AM16" s="13">
         <v>144</v>
       </c>
-      <c r="Q16" s="13">
-        <v>167</v>
-      </c>
-      <c r="R16" s="13">
-        <v>147</v>
-      </c>
-      <c r="S16" s="13">
-        <v>124</v>
-      </c>
-      <c r="T16" s="13">
-        <v>84</v>
-      </c>
-      <c r="U16" s="13">
-        <v>111</v>
-      </c>
-      <c r="V16" s="13">
-        <v>105</v>
-      </c>
-      <c r="W16" s="13">
-        <v>125</v>
-      </c>
-      <c r="X16" s="13">
-        <v>128</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>182</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>174</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>179</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>219</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>193</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>183</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>164</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>121</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>117</v>
-      </c>
-      <c r="AH16" s="13">
+      <c r="AN16" s="13">
+        <v>139</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>184</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>142</v>
+      </c>
+      <c r="AQ16" s="13">
         <v>140</v>
       </c>
-      <c r="AI16" s="13">
+      <c r="AR16" s="13">
+        <v>130</v>
+      </c>
+      <c r="AS16" s="13">
         <v>137</v>
       </c>
-      <c r="AJ16" s="13">
-        <v>151</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>181</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>157</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>172</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>144</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>139</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>184</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>142</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>140</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>130</v>
-      </c>
       <c r="AT16" s="13">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="AU16" s="13">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="AV16" s="13">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AW16" s="13">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="AX16" s="13">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AY16" s="13">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="AZ16" s="13">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="BA16" s="13">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="BB16" s="13">
-        <v>206</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>65</v>
       </c>
@@ -2416,14 +2416,14 @@
       <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="11">
-        <v>0</v>
+      <c r="H17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>57</v>
+      <c r="J17" s="11">
+        <v>0</v>
       </c>
       <c r="K17" s="11">
         <v>0</v>
@@ -2524,8 +2524,8 @@
       <c r="AQ17" s="11">
         <v>0</v>
       </c>
-      <c r="AR17" s="11">
-        <v>0</v>
+      <c r="AR17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS17" s="11" t="s">
         <v>57</v>
@@ -2558,7 +2558,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>67</v>
       </c>
@@ -2575,44 +2575,44 @@
       <c r="G18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>57</v>
+      <c r="H18" s="13">
+        <v>3493</v>
       </c>
       <c r="I18" s="13">
+        <v>3471</v>
+      </c>
+      <c r="J18" s="13">
+        <v>3470</v>
+      </c>
+      <c r="K18" s="13">
+        <v>3295</v>
+      </c>
+      <c r="L18" s="13">
+        <v>3305</v>
+      </c>
+      <c r="M18" s="13">
+        <v>3356</v>
+      </c>
+      <c r="N18" s="13">
+        <v>3196</v>
+      </c>
+      <c r="O18" s="13">
+        <v>3356</v>
+      </c>
+      <c r="P18" s="13">
+        <v>3374</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>3529</v>
+      </c>
+      <c r="R18" s="13">
+        <v>3676</v>
+      </c>
+      <c r="S18" s="13">
         <v>3493</v>
       </c>
-      <c r="J18" s="13">
-        <v>3471</v>
-      </c>
-      <c r="K18" s="13">
-        <v>3470</v>
-      </c>
-      <c r="L18" s="13">
-        <v>3295</v>
-      </c>
-      <c r="M18" s="13">
-        <v>3305</v>
-      </c>
-      <c r="N18" s="13">
-        <v>3356</v>
-      </c>
-      <c r="O18" s="13">
-        <v>3196</v>
-      </c>
-      <c r="P18" s="13">
-        <v>3356</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>3374</v>
-      </c>
-      <c r="R18" s="13">
-        <v>3529</v>
-      </c>
-      <c r="S18" s="13">
-        <v>3676</v>
-      </c>
-      <c r="T18" s="13">
-        <v>3493</v>
+      <c r="T18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="U18" s="13" t="s">
         <v>57</v>
@@ -2717,7 +2717,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>68</v>
       </c>
@@ -2734,8 +2734,8 @@
       <c r="G19" s="11">
         <v>0</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
+      <c r="H19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>57</v>
@@ -2876,7 +2876,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>69</v>
       </c>
@@ -3001,8 +3001,8 @@
       <c r="AQ20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR20" s="13" t="s">
-        <v>57</v>
+      <c r="AR20" s="13">
+        <v>0</v>
       </c>
       <c r="AS20" s="13">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>70</v>
       </c>
@@ -3092,7 +3092,7 @@
       <c r="BA21" s="15"/>
       <c r="BB21" s="15"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>71</v>
       </c>
@@ -3152,8 +3152,8 @@
       <c r="V22" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W22" s="17" t="s">
-        <v>57</v>
+      <c r="W22" s="17">
+        <v>0</v>
       </c>
       <c r="X22" s="17">
         <v>0</v>
@@ -3215,8 +3215,8 @@
       <c r="AQ22" s="17">
         <v>0</v>
       </c>
-      <c r="AR22" s="17">
-        <v>0</v>
+      <c r="AR22" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AS22" s="17" t="s">
         <v>57</v>
@@ -3249,164 +3249,164 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
       <c r="E23" s="19">
-        <v>3159063</v>
+        <v>3221630</v>
       </c>
       <c r="F23" s="19">
-        <v>3221630</v>
+        <v>3326477</v>
       </c>
       <c r="G23" s="19">
-        <v>3326477</v>
+        <v>3217777</v>
       </c>
       <c r="H23" s="19">
-        <v>3217777</v>
+        <v>3604</v>
       </c>
       <c r="I23" s="19">
-        <v>3604</v>
+        <v>3600</v>
       </c>
       <c r="J23" s="19">
-        <v>3600</v>
+        <v>3618</v>
       </c>
       <c r="K23" s="19">
-        <v>3618</v>
+        <v>3455</v>
       </c>
       <c r="L23" s="19">
-        <v>3455</v>
+        <v>3437</v>
       </c>
       <c r="M23" s="19">
-        <v>3437</v>
+        <v>3488</v>
       </c>
       <c r="N23" s="19">
-        <v>3488</v>
+        <v>3331</v>
       </c>
       <c r="O23" s="19">
-        <v>3331</v>
+        <v>3500</v>
       </c>
       <c r="P23" s="19">
-        <v>3500</v>
+        <v>3541</v>
       </c>
       <c r="Q23" s="19">
-        <v>3541</v>
+        <v>3676</v>
       </c>
       <c r="R23" s="19">
-        <v>3676</v>
+        <v>3800</v>
       </c>
       <c r="S23" s="19">
-        <v>3800</v>
+        <v>3577</v>
       </c>
       <c r="T23" s="19">
-        <v>3577</v>
+        <v>3920</v>
       </c>
       <c r="U23" s="19">
-        <v>3920</v>
+        <v>3806</v>
       </c>
       <c r="V23" s="19">
-        <v>3806</v>
+        <v>3773</v>
       </c>
       <c r="W23" s="19">
-        <v>3773</v>
+        <v>3804</v>
       </c>
       <c r="X23" s="19">
-        <v>3804</v>
+        <v>3798</v>
       </c>
       <c r="Y23" s="19">
-        <v>3798</v>
+        <v>3818</v>
       </c>
       <c r="Z23" s="19">
-        <v>3818</v>
+        <v>3729</v>
       </c>
       <c r="AA23" s="19">
-        <v>3729</v>
+        <v>3941</v>
       </c>
       <c r="AB23" s="19">
-        <v>3941</v>
+        <v>4142</v>
       </c>
       <c r="AC23" s="19">
-        <v>4142</v>
+        <v>4302</v>
       </c>
       <c r="AD23" s="19">
-        <v>4302</v>
+        <v>4442</v>
       </c>
       <c r="AE23" s="19">
-        <v>4442</v>
+        <v>4493</v>
       </c>
       <c r="AF23" s="19">
-        <v>4493</v>
+        <v>4656</v>
       </c>
       <c r="AG23" s="19">
-        <v>4656</v>
+        <v>4553</v>
       </c>
       <c r="AH23" s="19">
-        <v>4553</v>
+        <v>4348</v>
       </c>
       <c r="AI23" s="19">
-        <v>4348</v>
+        <v>4284</v>
       </c>
       <c r="AJ23" s="19">
-        <v>4284</v>
+        <v>4309</v>
       </c>
       <c r="AK23" s="19">
-        <v>4309</v>
+        <v>4326</v>
       </c>
       <c r="AL23" s="19">
-        <v>4326</v>
+        <v>4258</v>
       </c>
       <c r="AM23" s="19">
-        <v>4258</v>
+        <v>4381</v>
       </c>
       <c r="AN23" s="19">
-        <v>4381</v>
+        <v>4455</v>
       </c>
       <c r="AO23" s="19">
-        <v>4455</v>
+        <v>4628</v>
       </c>
       <c r="AP23" s="19">
-        <v>4628</v>
+        <v>4649</v>
       </c>
       <c r="AQ23" s="19">
-        <v>4649</v>
+        <v>43000</v>
       </c>
       <c r="AR23" s="19">
-        <v>43000</v>
+        <v>4888</v>
       </c>
       <c r="AS23" s="19">
-        <v>4888</v>
+        <v>4841</v>
       </c>
       <c r="AT23" s="19">
-        <v>4841</v>
+        <v>4660</v>
       </c>
       <c r="AU23" s="19">
-        <v>4660</v>
+        <v>4629</v>
       </c>
       <c r="AV23" s="19">
-        <v>4629</v>
+        <v>4592</v>
       </c>
       <c r="AW23" s="19">
-        <v>4592</v>
+        <v>4820</v>
       </c>
       <c r="AX23" s="19">
-        <v>4820</v>
+        <v>4852</v>
       </c>
       <c r="AY23" s="19">
-        <v>4852</v>
+        <v>5118</v>
       </c>
       <c r="AZ23" s="19">
-        <v>5118</v>
+        <v>5233</v>
       </c>
       <c r="BA23" s="19">
-        <v>5233</v>
+        <v>5254</v>
       </c>
       <c r="BB23" s="19">
-        <v>5254</v>
+        <v>5253</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3461,7 +3461,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3516,7 +3516,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3571,7 +3571,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>73</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3783,7 +3783,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>73</v>
       </c>
@@ -3840,7 +3840,7 @@
       <c r="BA29" s="9"/>
       <c r="BB29" s="9"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>55</v>
       </c>
@@ -3849,17 +3849,17 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>3065203</v>
+        <v>3128323</v>
       </c>
       <c r="F30" s="11">
-        <v>3128323</v>
+        <v>3249517</v>
       </c>
       <c r="G30" s="11">
-        <v>3249517</v>
-      </c>
-      <c r="H30" s="11">
         <v>3150100</v>
       </c>
+      <c r="H30" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="I30" s="11" t="s">
         <v>57</v>
       </c>
@@ -3893,113 +3893,113 @@
       <c r="S30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T30" s="11" t="s">
-        <v>57</v>
+      <c r="T30" s="11">
+        <v>3709</v>
       </c>
       <c r="U30" s="11">
-        <v>3709</v>
+        <v>3653</v>
       </c>
       <c r="V30" s="11">
-        <v>3653</v>
+        <v>3575</v>
       </c>
       <c r="W30" s="11">
-        <v>3575</v>
+        <v>3595</v>
       </c>
       <c r="X30" s="11">
-        <v>3595</v>
+        <v>3522</v>
       </c>
       <c r="Y30" s="11">
-        <v>3522</v>
+        <v>3557</v>
       </c>
       <c r="Z30" s="11">
-        <v>3557</v>
+        <v>3459</v>
       </c>
       <c r="AA30" s="11">
-        <v>3459</v>
+        <v>3621</v>
       </c>
       <c r="AB30" s="11">
-        <v>3621</v>
+        <v>3853</v>
       </c>
       <c r="AC30" s="11">
-        <v>3853</v>
+        <v>3968</v>
       </c>
       <c r="AD30" s="11">
-        <v>3968</v>
+        <v>4128</v>
       </c>
       <c r="AE30" s="11">
-        <v>4128</v>
+        <v>4193</v>
       </c>
       <c r="AF30" s="11">
-        <v>4193</v>
+        <v>4392</v>
       </c>
       <c r="AG30" s="11">
-        <v>4392</v>
+        <v>4255</v>
       </c>
       <c r="AH30" s="11">
-        <v>4255</v>
+        <v>4075</v>
       </c>
       <c r="AI30" s="11">
-        <v>4075</v>
+        <v>3992</v>
       </c>
       <c r="AJ30" s="11">
-        <v>3992</v>
+        <v>3979</v>
       </c>
       <c r="AK30" s="11">
-        <v>3979</v>
+        <v>4014</v>
       </c>
       <c r="AL30" s="11">
-        <v>4014</v>
+        <v>3946</v>
       </c>
       <c r="AM30" s="11">
-        <v>3946</v>
+        <v>4094</v>
       </c>
       <c r="AN30" s="11">
-        <v>4094</v>
+        <v>4137</v>
       </c>
       <c r="AO30" s="11">
-        <v>4137</v>
+        <v>4285</v>
       </c>
       <c r="AP30" s="11">
-        <v>4285</v>
+        <v>4441</v>
       </c>
       <c r="AQ30" s="11">
-        <v>4441</v>
+        <v>4157</v>
       </c>
       <c r="AR30" s="11">
-        <v>4157</v>
+        <v>4636</v>
       </c>
       <c r="AS30" s="11">
-        <v>4636</v>
+        <v>4549</v>
       </c>
       <c r="AT30" s="11">
-        <v>4549</v>
+        <v>4384</v>
       </c>
       <c r="AU30" s="11">
-        <v>4384</v>
+        <v>4274</v>
       </c>
       <c r="AV30" s="11">
-        <v>4274</v>
+        <v>4215</v>
       </c>
       <c r="AW30" s="11">
-        <v>4215</v>
+        <v>4309</v>
       </c>
       <c r="AX30" s="11">
-        <v>4309</v>
+        <v>4462</v>
       </c>
       <c r="AY30" s="11">
-        <v>4462</v>
+        <v>4678</v>
       </c>
       <c r="AZ30" s="11">
-        <v>4678</v>
+        <v>4803</v>
       </c>
       <c r="BA30" s="11">
-        <v>4803</v>
+        <v>4894</v>
       </c>
       <c r="BB30" s="11">
-        <v>4894</v>
+        <v>4909</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>58</v>
       </c>
@@ -4121,12 +4121,12 @@
       <c r="AP31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ31" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR31" s="13">
+      <c r="AQ31" s="13">
         <v>67233</v>
       </c>
+      <c r="AR31" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS31" s="13" t="s">
         <v>57</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>59</v>
       </c>
@@ -4175,8 +4175,8 @@
       <c r="G32" s="11">
         <v>0</v>
       </c>
-      <c r="H32" s="11">
-        <v>0</v>
+      <c r="H32" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I32" s="11" t="s">
         <v>57</v>
@@ -4317,7 +4317,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>61</v>
       </c>
@@ -4334,8 +4334,8 @@
       <c r="G33" s="13">
         <v>0</v>
       </c>
-      <c r="H33" s="13">
-        <v>0</v>
+      <c r="H33" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>57</v>
@@ -4476,7 +4476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>62</v>
       </c>
@@ -4493,8 +4493,8 @@
       <c r="G34" s="11">
         <v>0</v>
       </c>
-      <c r="H34" s="11">
-        <v>0</v>
+      <c r="H34" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I34" s="11" t="s">
         <v>57</v>
@@ -4635,7 +4635,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>63</v>
       </c>
@@ -4644,157 +4644,157 @@
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="13">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="F35" s="13">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="G35" s="13">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="H35" s="13">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="I35" s="13">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="J35" s="13">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="K35" s="13">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="L35" s="13">
-        <v>231</v>
+        <v>129</v>
       </c>
       <c r="M35" s="13">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="N35" s="13">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="O35" s="13">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="P35" s="13">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="Q35" s="13">
-        <v>196</v>
+        <v>70</v>
       </c>
       <c r="R35" s="13">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="S35" s="13">
+        <v>108</v>
+      </c>
+      <c r="T35" s="13">
+        <v>33</v>
+      </c>
+      <c r="U35" s="13">
+        <v>371</v>
+      </c>
+      <c r="V35" s="13">
+        <v>91</v>
+      </c>
+      <c r="W35" s="13">
+        <v>23</v>
+      </c>
+      <c r="X35" s="13">
+        <v>65</v>
+      </c>
+      <c r="Y35" s="13">
+        <v>35</v>
+      </c>
+      <c r="Z35" s="13">
+        <v>157</v>
+      </c>
+      <c r="AA35" s="13">
+        <v>78</v>
+      </c>
+      <c r="AB35" s="13">
+        <v>41</v>
+      </c>
+      <c r="AC35" s="13">
+        <v>245</v>
+      </c>
+      <c r="AD35" s="13">
+        <v>348</v>
+      </c>
+      <c r="AE35" s="13">
+        <v>258</v>
+      </c>
+      <c r="AF35" s="13">
+        <v>277</v>
+      </c>
+      <c r="AG35" s="13">
+        <v>173</v>
+      </c>
+      <c r="AH35" s="13">
+        <v>195</v>
+      </c>
+      <c r="AI35" s="13">
+        <v>47</v>
+      </c>
+      <c r="AJ35" s="13">
+        <v>105</v>
+      </c>
+      <c r="AK35" s="13">
+        <v>151</v>
+      </c>
+      <c r="AL35" s="13">
+        <v>105</v>
+      </c>
+      <c r="AM35" s="13">
+        <v>307</v>
+      </c>
+      <c r="AN35" s="13">
+        <v>133</v>
+      </c>
+      <c r="AO35" s="13">
+        <v>148</v>
+      </c>
+      <c r="AP35" s="13">
         <v>122</v>
       </c>
-      <c r="T35" s="13">
-        <v>108</v>
-      </c>
-      <c r="U35" s="13">
-        <v>33</v>
-      </c>
-      <c r="V35" s="13">
-        <v>371</v>
-      </c>
-      <c r="W35" s="13">
-        <v>91</v>
-      </c>
-      <c r="X35" s="13">
-        <v>23</v>
-      </c>
-      <c r="Y35" s="13">
-        <v>65</v>
-      </c>
-      <c r="Z35" s="13">
-        <v>35</v>
-      </c>
-      <c r="AA35" s="13">
-        <v>157</v>
-      </c>
-      <c r="AB35" s="13">
-        <v>78</v>
-      </c>
-      <c r="AC35" s="13">
-        <v>41</v>
-      </c>
-      <c r="AD35" s="13">
-        <v>245</v>
-      </c>
-      <c r="AE35" s="13">
-        <v>348</v>
-      </c>
-      <c r="AF35" s="13">
-        <v>258</v>
-      </c>
-      <c r="AG35" s="13">
-        <v>277</v>
-      </c>
-      <c r="AH35" s="13">
-        <v>173</v>
-      </c>
-      <c r="AI35" s="13">
-        <v>195</v>
-      </c>
-      <c r="AJ35" s="13">
-        <v>47</v>
-      </c>
-      <c r="AK35" s="13">
-        <v>105</v>
-      </c>
-      <c r="AL35" s="13">
-        <v>151</v>
-      </c>
-      <c r="AM35" s="13">
-        <v>105</v>
-      </c>
-      <c r="AN35" s="13">
-        <v>307</v>
-      </c>
-      <c r="AO35" s="13">
-        <v>133</v>
-      </c>
-      <c r="AP35" s="13">
-        <v>148</v>
-      </c>
       <c r="AQ35" s="13">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="AR35" s="13">
-        <v>190</v>
+        <v>305</v>
       </c>
       <c r="AS35" s="13">
-        <v>305</v>
+        <v>18</v>
       </c>
       <c r="AT35" s="13">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AU35" s="13">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="AV35" s="13">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="AW35" s="13">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="AX35" s="13">
-        <v>304</v>
+        <v>428</v>
       </c>
       <c r="AY35" s="13">
-        <v>428</v>
+        <v>199</v>
       </c>
       <c r="AZ35" s="13">
-        <v>199</v>
+        <v>345</v>
       </c>
       <c r="BA35" s="13">
-        <v>345</v>
+        <v>219</v>
       </c>
       <c r="BB35" s="13">
-        <v>219</v>
+        <v>479</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>65</v>
       </c>
@@ -4811,14 +4811,14 @@
       <c r="G36" s="11">
         <v>0</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
+      <c r="H36" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J36" s="11" t="s">
-        <v>57</v>
+      <c r="J36" s="11">
+        <v>0</v>
       </c>
       <c r="K36" s="11">
         <v>0</v>
@@ -4919,8 +4919,8 @@
       <c r="AQ36" s="11">
         <v>0</v>
       </c>
-      <c r="AR36" s="11">
-        <v>0</v>
+      <c r="AR36" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS36" s="11" t="s">
         <v>57</v>
@@ -4953,7 +4953,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>67</v>
       </c>
@@ -4970,45 +4970,45 @@
       <c r="G37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>57</v>
+      <c r="H37" s="13">
+        <v>3398</v>
       </c>
       <c r="I37" s="13">
-        <v>3398</v>
+        <v>3350</v>
       </c>
       <c r="J37" s="13">
-        <v>3350</v>
+        <v>3420</v>
       </c>
       <c r="K37" s="13">
-        <v>3420</v>
+        <v>3199</v>
       </c>
       <c r="L37" s="13">
-        <v>3199</v>
+        <v>3185</v>
       </c>
       <c r="M37" s="13">
-        <v>3185</v>
+        <v>3223</v>
       </c>
       <c r="N37" s="13">
-        <v>3223</v>
+        <v>3110</v>
       </c>
       <c r="O37" s="13">
-        <v>3110</v>
+        <v>3269</v>
       </c>
       <c r="P37" s="13">
-        <v>3269</v>
+        <v>3267</v>
       </c>
       <c r="Q37" s="13">
-        <v>3267</v>
+        <v>3427</v>
       </c>
       <c r="R37" s="13">
-        <v>3427</v>
+        <v>3529</v>
       </c>
       <c r="S37" s="13">
-        <v>3529</v>
-      </c>
-      <c r="T37" s="13">
         <v>3498</v>
       </c>
+      <c r="T37" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="U37" s="13" t="s">
         <v>57</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>68</v>
       </c>
@@ -5129,8 +5129,8 @@
       <c r="G38" s="11">
         <v>0</v>
       </c>
-      <c r="H38" s="11">
-        <v>0</v>
+      <c r="H38" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>57</v>
@@ -5271,7 +5271,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>69</v>
       </c>
@@ -5396,8 +5396,8 @@
       <c r="AQ39" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR39" s="13" t="s">
-        <v>57</v>
+      <c r="AR39" s="13">
+        <v>0</v>
       </c>
       <c r="AS39" s="13">
         <v>0</v>
@@ -5430,7 +5430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>70</v>
       </c>
@@ -5487,7 +5487,7 @@
       <c r="BA40" s="15"/>
       <c r="BB40" s="15"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="16" t="s">
         <v>71</v>
       </c>
@@ -5547,8 +5547,8 @@
       <c r="V41" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W41" s="17" t="s">
-        <v>57</v>
+      <c r="W41" s="17">
+        <v>0</v>
       </c>
       <c r="X41" s="17">
         <v>0</v>
@@ -5610,8 +5610,8 @@
       <c r="AQ41" s="17">
         <v>0</v>
       </c>
-      <c r="AR41" s="17">
-        <v>0</v>
+      <c r="AR41" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AS41" s="17" t="s">
         <v>57</v>
@@ -5644,7 +5644,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="14" t="s">
         <v>74</v>
       </c>
@@ -5701,7 +5701,7 @@
       <c r="BA42" s="15"/>
       <c r="BB42" s="15"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
         <v>75</v>
       </c>
@@ -5761,8 +5761,8 @@
       <c r="V43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W43" s="17" t="s">
-        <v>57</v>
+      <c r="W43" s="17">
+        <v>0</v>
       </c>
       <c r="X43" s="17">
         <v>0</v>
@@ -5824,8 +5824,8 @@
       <c r="AQ43" s="17">
         <v>0</v>
       </c>
-      <c r="AR43" s="17">
-        <v>0</v>
+      <c r="AR43" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AS43" s="17" t="s">
         <v>57</v>
@@ -5858,164 +5858,164 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
       <c r="E44" s="19">
-        <v>3065378</v>
+        <v>3128397</v>
       </c>
       <c r="F44" s="19">
-        <v>3128397</v>
+        <v>3249640</v>
       </c>
       <c r="G44" s="19">
-        <v>3249640</v>
+        <v>3150106</v>
       </c>
       <c r="H44" s="19">
-        <v>3150106</v>
+        <v>3435</v>
       </c>
       <c r="I44" s="19">
-        <v>3435</v>
+        <v>3544</v>
       </c>
       <c r="J44" s="19">
-        <v>3544</v>
+        <v>3439</v>
       </c>
       <c r="K44" s="19">
-        <v>3439</v>
+        <v>3430</v>
       </c>
       <c r="L44" s="19">
-        <v>3430</v>
+        <v>3314</v>
       </c>
       <c r="M44" s="19">
-        <v>3314</v>
+        <v>3408</v>
       </c>
       <c r="N44" s="19">
-        <v>3408</v>
+        <v>3141</v>
       </c>
       <c r="O44" s="19">
-        <v>3141</v>
+        <v>3401</v>
       </c>
       <c r="P44" s="19">
-        <v>3401</v>
+        <v>3463</v>
       </c>
       <c r="Q44" s="19">
-        <v>3463</v>
+        <v>3497</v>
       </c>
       <c r="R44" s="19">
-        <v>3497</v>
+        <v>3651</v>
       </c>
       <c r="S44" s="19">
-        <v>3651</v>
+        <v>3606</v>
       </c>
       <c r="T44" s="19">
-        <v>3606</v>
+        <v>3742</v>
       </c>
       <c r="U44" s="19">
-        <v>3742</v>
+        <v>4024</v>
       </c>
       <c r="V44" s="19">
-        <v>4024</v>
+        <v>3666</v>
       </c>
       <c r="W44" s="19">
-        <v>3666</v>
+        <v>3618</v>
       </c>
       <c r="X44" s="19">
-        <v>3618</v>
+        <v>3587</v>
       </c>
       <c r="Y44" s="19">
-        <v>3587</v>
+        <v>3592</v>
       </c>
       <c r="Z44" s="19">
-        <v>3592</v>
+        <v>3616</v>
       </c>
       <c r="AA44" s="19">
-        <v>3616</v>
+        <v>3699</v>
       </c>
       <c r="AB44" s="19">
-        <v>3699</v>
+        <v>3894</v>
       </c>
       <c r="AC44" s="19">
-        <v>3894</v>
+        <v>4213</v>
       </c>
       <c r="AD44" s="19">
-        <v>4213</v>
+        <v>4476</v>
       </c>
       <c r="AE44" s="19">
-        <v>4476</v>
+        <v>4451</v>
       </c>
       <c r="AF44" s="19">
-        <v>4451</v>
+        <v>4669</v>
       </c>
       <c r="AG44" s="19">
-        <v>4669</v>
+        <v>4428</v>
       </c>
       <c r="AH44" s="19">
-        <v>4428</v>
+        <v>4270</v>
       </c>
       <c r="AI44" s="19">
+        <v>4039</v>
+      </c>
+      <c r="AJ44" s="19">
+        <v>4084</v>
+      </c>
+      <c r="AK44" s="19">
+        <v>4165</v>
+      </c>
+      <c r="AL44" s="19">
+        <v>4051</v>
+      </c>
+      <c r="AM44" s="19">
+        <v>4401</v>
+      </c>
+      <c r="AN44" s="19">
         <v>4270</v>
       </c>
-      <c r="AJ44" s="19">
-        <v>4039</v>
-      </c>
-      <c r="AK44" s="19">
-        <v>4084</v>
-      </c>
-      <c r="AL44" s="19">
-        <v>4165</v>
-      </c>
-      <c r="AM44" s="19">
-        <v>4051</v>
-      </c>
-      <c r="AN44" s="19">
-        <v>4401</v>
-      </c>
       <c r="AO44" s="19">
-        <v>4270</v>
+        <v>4433</v>
       </c>
       <c r="AP44" s="19">
-        <v>4433</v>
+        <v>4563</v>
       </c>
       <c r="AQ44" s="19">
-        <v>4563</v>
+        <v>71580</v>
       </c>
       <c r="AR44" s="19">
-        <v>71580</v>
+        <v>4941</v>
       </c>
       <c r="AS44" s="19">
-        <v>4941</v>
+        <v>4567</v>
       </c>
       <c r="AT44" s="19">
-        <v>4567</v>
+        <v>4397</v>
       </c>
       <c r="AU44" s="19">
-        <v>4397</v>
+        <v>4391</v>
       </c>
       <c r="AV44" s="19">
-        <v>4391</v>
+        <v>4255</v>
       </c>
       <c r="AW44" s="19">
-        <v>4255</v>
+        <v>4613</v>
       </c>
       <c r="AX44" s="19">
-        <v>4613</v>
+        <v>4890</v>
       </c>
       <c r="AY44" s="19">
-        <v>4890</v>
+        <v>4877</v>
       </c>
       <c r="AZ44" s="19">
-        <v>4877</v>
+        <v>5148</v>
       </c>
       <c r="BA44" s="19">
-        <v>5148</v>
+        <v>5113</v>
       </c>
       <c r="BB44" s="19">
-        <v>5113</v>
+        <v>5388</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -6070,7 +6070,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -6125,7 +6125,7 @@
       <c r="BA46" s="1"/>
       <c r="BB46" s="1"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6180,7 +6180,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B48" s="7" t="s">
         <v>76</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6392,7 +6392,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>76</v>
       </c>
@@ -6449,7 +6449,7 @@
       <c r="BA50" s="9"/>
       <c r="BB50" s="9"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>55</v>
       </c>
@@ -6458,17 +6458,17 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>66367</v>
+        <v>67814</v>
       </c>
       <c r="F51" s="11">
-        <v>67814</v>
+        <v>69802</v>
       </c>
       <c r="G51" s="11">
-        <v>69802</v>
-      </c>
-      <c r="H51" s="11">
         <v>63818</v>
       </c>
+      <c r="H51" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="I51" s="11" t="s">
         <v>57</v>
       </c>
@@ -6502,113 +6502,113 @@
       <c r="S51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T51" s="11" t="s">
-        <v>57</v>
+      <c r="T51" s="11">
+        <v>97020</v>
       </c>
       <c r="U51" s="11">
-        <v>97020</v>
+        <v>94701</v>
       </c>
       <c r="V51" s="11">
-        <v>94701</v>
+        <v>100079</v>
       </c>
       <c r="W51" s="11">
-        <v>100079</v>
+        <v>114952</v>
       </c>
       <c r="X51" s="11">
-        <v>114952</v>
+        <v>122242</v>
       </c>
       <c r="Y51" s="11">
-        <v>122242</v>
+        <v>130542</v>
       </c>
       <c r="Z51" s="11">
-        <v>130542</v>
+        <v>132207</v>
       </c>
       <c r="AA51" s="11">
-        <v>132207</v>
+        <v>161205</v>
       </c>
       <c r="AB51" s="11">
-        <v>161205</v>
+        <v>184256</v>
       </c>
       <c r="AC51" s="11">
-        <v>184256</v>
+        <v>190609</v>
       </c>
       <c r="AD51" s="11">
-        <v>190609</v>
+        <v>195537</v>
       </c>
       <c r="AE51" s="11">
-        <v>195537</v>
+        <v>196877</v>
       </c>
       <c r="AF51" s="11">
-        <v>196877</v>
+        <v>206654</v>
       </c>
       <c r="AG51" s="11">
-        <v>206654</v>
+        <v>209143</v>
       </c>
       <c r="AH51" s="11">
-        <v>209143</v>
+        <v>202448</v>
       </c>
       <c r="AI51" s="11">
-        <v>202448</v>
+        <v>204814</v>
       </c>
       <c r="AJ51" s="11">
-        <v>204814</v>
+        <v>211610</v>
       </c>
       <c r="AK51" s="11">
-        <v>211610</v>
+        <v>263644</v>
       </c>
       <c r="AL51" s="11">
-        <v>263644</v>
+        <v>257247</v>
       </c>
       <c r="AM51" s="11">
-        <v>257247</v>
+        <v>268641</v>
       </c>
       <c r="AN51" s="11">
-        <v>268641</v>
+        <v>273573</v>
       </c>
       <c r="AO51" s="11">
-        <v>273573</v>
+        <v>285215</v>
       </c>
       <c r="AP51" s="11">
-        <v>285215</v>
+        <v>296819</v>
       </c>
       <c r="AQ51" s="11">
-        <v>296819</v>
+        <v>274514</v>
       </c>
       <c r="AR51" s="11">
-        <v>274514</v>
+        <v>296704</v>
       </c>
       <c r="AS51" s="11">
-        <v>296704</v>
+        <v>291136</v>
       </c>
       <c r="AT51" s="11">
-        <v>291136</v>
+        <v>526080</v>
       </c>
       <c r="AU51" s="11">
-        <v>526080</v>
+        <v>512880</v>
       </c>
       <c r="AV51" s="11">
-        <v>512880</v>
+        <v>505800</v>
       </c>
       <c r="AW51" s="11">
-        <v>505800</v>
+        <v>517080</v>
       </c>
       <c r="AX51" s="11">
-        <v>517080</v>
+        <v>535440</v>
       </c>
       <c r="AY51" s="11">
-        <v>535440</v>
+        <v>561360</v>
       </c>
       <c r="AZ51" s="11">
-        <v>561360</v>
+        <v>576360</v>
       </c>
       <c r="BA51" s="11">
-        <v>576360</v>
+        <v>587280</v>
       </c>
       <c r="BB51" s="11">
-        <v>587280</v>
+        <v>589080</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>58</v>
       </c>
@@ -6730,12 +6730,12 @@
       <c r="AP52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ52" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR52" s="13">
+      <c r="AQ52" s="13">
         <v>81691</v>
       </c>
+      <c r="AR52" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS52" s="13" t="s">
         <v>57</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>59</v>
       </c>
@@ -6784,8 +6784,8 @@
       <c r="G53" s="11">
         <v>0</v>
       </c>
-      <c r="H53" s="11">
-        <v>0</v>
+      <c r="H53" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I53" s="11" t="s">
         <v>57</v>
@@ -6926,7 +6926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>61</v>
       </c>
@@ -6943,8 +6943,8 @@
       <c r="G54" s="13">
         <v>0</v>
       </c>
-      <c r="H54" s="13">
-        <v>0</v>
+      <c r="H54" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>57</v>
@@ -7085,7 +7085,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>62</v>
       </c>
@@ -7102,8 +7102,8 @@
       <c r="G55" s="11">
         <v>0</v>
       </c>
-      <c r="H55" s="11">
-        <v>0</v>
+      <c r="H55" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I55" s="11" t="s">
         <v>57</v>
@@ -7244,7 +7244,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>63</v>
       </c>
@@ -7253,157 +7253,157 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>6478</v>
+        <v>4465</v>
       </c>
       <c r="F56" s="13">
-        <v>4465</v>
+        <v>8821</v>
       </c>
       <c r="G56" s="13">
-        <v>8821</v>
+        <v>484</v>
       </c>
       <c r="H56" s="13">
-        <v>484</v>
+        <v>3919</v>
       </c>
       <c r="I56" s="13">
-        <v>3919</v>
+        <v>18203</v>
       </c>
       <c r="J56" s="13">
-        <v>18203</v>
+        <v>855</v>
       </c>
       <c r="K56" s="13">
-        <v>855</v>
+        <v>18940</v>
       </c>
       <c r="L56" s="13">
-        <v>18940</v>
+        <v>10564</v>
       </c>
       <c r="M56" s="13">
-        <v>10564</v>
+        <v>15016</v>
       </c>
       <c r="N56" s="13">
-        <v>15016</v>
+        <v>2113</v>
       </c>
       <c r="O56" s="13">
-        <v>2113</v>
+        <v>9807</v>
       </c>
       <c r="P56" s="13">
-        <v>9807</v>
+        <v>13477</v>
       </c>
       <c r="Q56" s="13">
-        <v>13477</v>
+        <v>4740</v>
       </c>
       <c r="R56" s="13">
-        <v>4740</v>
+        <v>7797</v>
       </c>
       <c r="S56" s="13">
-        <v>7797</v>
+        <v>7518</v>
       </c>
       <c r="T56" s="13">
-        <v>7518</v>
+        <v>2081</v>
       </c>
       <c r="U56" s="13">
-        <v>2081</v>
+        <v>28240</v>
       </c>
       <c r="V56" s="13">
-        <v>28240</v>
+        <v>7245</v>
       </c>
       <c r="W56" s="13">
-        <v>7245</v>
+        <v>1269</v>
       </c>
       <c r="X56" s="13">
-        <v>1269</v>
+        <v>4623</v>
       </c>
       <c r="Y56" s="13">
-        <v>4623</v>
+        <v>2040</v>
       </c>
       <c r="Z56" s="13">
-        <v>2040</v>
+        <v>13208</v>
       </c>
       <c r="AA56" s="13">
-        <v>13208</v>
+        <v>6392</v>
       </c>
       <c r="AB56" s="13">
-        <v>6392</v>
+        <v>2337</v>
       </c>
       <c r="AC56" s="13">
-        <v>2337</v>
+        <v>13445</v>
       </c>
       <c r="AD56" s="13">
-        <v>13445</v>
+        <v>28191</v>
       </c>
       <c r="AE56" s="13">
-        <v>28191</v>
+        <v>20247</v>
       </c>
       <c r="AF56" s="13">
-        <v>20247</v>
+        <v>22148</v>
       </c>
       <c r="AG56" s="13">
-        <v>22148</v>
+        <v>13447</v>
       </c>
       <c r="AH56" s="13">
-        <v>13447</v>
+        <v>14990</v>
       </c>
       <c r="AI56" s="13">
-        <v>14990</v>
+        <v>3066</v>
       </c>
       <c r="AJ56" s="13">
-        <v>3066</v>
+        <v>8808</v>
       </c>
       <c r="AK56" s="13">
-        <v>8808</v>
+        <v>13304</v>
       </c>
       <c r="AL56" s="13">
-        <v>13304</v>
+        <v>8580</v>
       </c>
       <c r="AM56" s="13">
-        <v>8580</v>
+        <v>29052</v>
       </c>
       <c r="AN56" s="13">
-        <v>29052</v>
+        <v>10663</v>
       </c>
       <c r="AO56" s="13">
-        <v>10663</v>
+        <v>12075</v>
       </c>
       <c r="AP56" s="13">
-        <v>12075</v>
+        <v>9376</v>
       </c>
       <c r="AQ56" s="13">
-        <v>9376</v>
+        <v>18227</v>
       </c>
       <c r="AR56" s="13">
-        <v>18227</v>
+        <v>28511</v>
       </c>
       <c r="AS56" s="13">
-        <v>28511</v>
+        <v>1171</v>
       </c>
       <c r="AT56" s="13">
-        <v>1171</v>
+        <v>1366</v>
       </c>
       <c r="AU56" s="13">
-        <v>1366</v>
+        <v>15407</v>
       </c>
       <c r="AV56" s="13">
-        <v>15407</v>
+        <v>1993</v>
       </c>
       <c r="AW56" s="13">
-        <v>1993</v>
+        <v>42481</v>
       </c>
       <c r="AX56" s="13">
-        <v>42481</v>
+        <v>45582</v>
       </c>
       <c r="AY56" s="13">
-        <v>45582</v>
+        <v>22205</v>
       </c>
       <c r="AZ56" s="13">
-        <v>22205</v>
+        <v>43699</v>
       </c>
       <c r="BA56" s="13">
-        <v>43699</v>
+        <v>23782</v>
       </c>
       <c r="BB56" s="13">
-        <v>23782</v>
+        <v>59382</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>65</v>
       </c>
@@ -7418,119 +7418,119 @@
         <v>0</v>
       </c>
       <c r="G57" s="11">
-        <v>0</v>
-      </c>
-      <c r="H57" s="11">
         <v>2389</v>
       </c>
+      <c r="H57" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="I57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J57" s="11" t="s">
-        <v>57</v>
+      <c r="J57" s="11">
+        <v>1835</v>
       </c>
       <c r="K57" s="11">
-        <v>1835</v>
+        <v>8035</v>
       </c>
       <c r="L57" s="11">
-        <v>8035</v>
+        <v>4635</v>
       </c>
       <c r="M57" s="11">
-        <v>4635</v>
+        <v>5970</v>
       </c>
       <c r="N57" s="11">
-        <v>5970</v>
+        <v>1260</v>
       </c>
       <c r="O57" s="11">
-        <v>1260</v>
+        <v>968</v>
       </c>
       <c r="P57" s="11">
-        <v>968</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="11">
         <v>0</v>
       </c>
       <c r="R57" s="11">
-        <v>0</v>
+        <v>7013</v>
       </c>
       <c r="S57" s="11">
-        <v>7013</v>
+        <v>-5996</v>
       </c>
       <c r="T57" s="11">
-        <v>-5996</v>
+        <v>16483</v>
       </c>
       <c r="U57" s="11">
-        <v>16483</v>
+        <v>-5813</v>
       </c>
       <c r="V57" s="11">
-        <v>-5813</v>
+        <v>-542</v>
       </c>
       <c r="W57" s="11">
-        <v>-542</v>
+        <v>2232</v>
       </c>
       <c r="X57" s="11">
-        <v>2232</v>
+        <v>3072</v>
       </c>
       <c r="Y57" s="11">
-        <v>3072</v>
+        <v>3360</v>
       </c>
       <c r="Z57" s="11">
-        <v>3360</v>
+        <v>528</v>
       </c>
       <c r="AA57" s="11">
-        <v>528</v>
+        <v>3384</v>
       </c>
       <c r="AB57" s="11">
-        <v>3384</v>
+        <v>3648</v>
       </c>
       <c r="AC57" s="11">
-        <v>3648</v>
+        <v>-1488</v>
       </c>
       <c r="AD57" s="11">
-        <v>-1488</v>
+        <v>-4416</v>
       </c>
       <c r="AE57" s="11">
-        <v>-4416</v>
+        <v>-3312</v>
       </c>
       <c r="AF57" s="11">
-        <v>-3312</v>
+        <v>13296</v>
       </c>
       <c r="AG57" s="11">
-        <v>13296</v>
+        <v>-792</v>
       </c>
       <c r="AH57" s="11">
-        <v>-792</v>
+        <v>-1392</v>
       </c>
       <c r="AI57" s="11">
-        <v>-1392</v>
+        <v>2496</v>
       </c>
       <c r="AJ57" s="11">
-        <v>2496</v>
+        <v>1824</v>
       </c>
       <c r="AK57" s="11">
-        <v>1824</v>
+        <v>144</v>
       </c>
       <c r="AL57" s="11">
+        <v>1608</v>
+      </c>
+      <c r="AM57" s="11">
+        <v>-3912</v>
+      </c>
+      <c r="AN57" s="11">
         <v>144</v>
-      </c>
-      <c r="AM57" s="11">
-        <v>1608</v>
-      </c>
-      <c r="AN57" s="11">
-        <v>-3912</v>
       </c>
       <c r="AO57" s="11">
         <v>144</v>
       </c>
       <c r="AP57" s="11">
-        <v>144</v>
+        <v>408</v>
       </c>
       <c r="AQ57" s="11">
-        <v>408</v>
-      </c>
-      <c r="AR57" s="11">
         <v>17996</v>
       </c>
+      <c r="AR57" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AS57" s="11" t="s">
         <v>57</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>67</v>
       </c>
@@ -7579,45 +7579,45 @@
       <c r="G58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>57</v>
+      <c r="H58" s="13">
+        <v>73414</v>
       </c>
       <c r="I58" s="13">
-        <v>73414</v>
+        <v>73394</v>
       </c>
       <c r="J58" s="13">
-        <v>73394</v>
+        <v>83660</v>
       </c>
       <c r="K58" s="13">
-        <v>83660</v>
+        <v>81350</v>
       </c>
       <c r="L58" s="13">
-        <v>81350</v>
+        <v>83639</v>
       </c>
       <c r="M58" s="13">
-        <v>83639</v>
+        <v>86762</v>
       </c>
       <c r="N58" s="13">
-        <v>86762</v>
+        <v>84323</v>
       </c>
       <c r="O58" s="13">
-        <v>84323</v>
+        <v>88807</v>
       </c>
       <c r="P58" s="13">
-        <v>88807</v>
+        <v>88250</v>
       </c>
       <c r="Q58" s="13">
-        <v>88250</v>
+        <v>91544</v>
       </c>
       <c r="R58" s="13">
-        <v>91544</v>
+        <v>94301</v>
       </c>
       <c r="S58" s="13">
-        <v>94301</v>
-      </c>
-      <c r="T58" s="13">
         <v>90818</v>
       </c>
+      <c r="T58" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="U58" s="13" t="s">
         <v>57</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>68</v>
       </c>
@@ -7738,8 +7738,8 @@
       <c r="G59" s="11">
         <v>0</v>
       </c>
-      <c r="H59" s="11">
-        <v>0</v>
+      <c r="H59" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I59" s="11" t="s">
         <v>57</v>
@@ -7880,7 +7880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>69</v>
       </c>
@@ -8005,41 +8005,41 @@
       <c r="AQ60" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR60" s="13" t="s">
-        <v>57</v>
+      <c r="AR60" s="13">
+        <v>10629</v>
       </c>
       <c r="AS60" s="13">
-        <v>10629</v>
+        <v>17893</v>
       </c>
       <c r="AT60" s="13">
-        <v>17893</v>
+        <v>19425</v>
       </c>
       <c r="AU60" s="13">
-        <v>19425</v>
+        <v>201</v>
       </c>
       <c r="AV60" s="13">
-        <v>201</v>
+        <v>1315</v>
       </c>
       <c r="AW60" s="13">
-        <v>1315</v>
+        <v>-21454</v>
       </c>
       <c r="AX60" s="13">
-        <v>-21454</v>
+        <v>15567</v>
       </c>
       <c r="AY60" s="13">
-        <v>15567</v>
+        <v>14518</v>
       </c>
       <c r="AZ60" s="13">
-        <v>14518</v>
+        <v>22714</v>
       </c>
       <c r="BA60" s="13">
-        <v>22714</v>
+        <v>25403</v>
       </c>
       <c r="BB60" s="13">
-        <v>25403</v>
+        <v>25032</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
         <v>78</v>
       </c>
@@ -8096,7 +8096,7 @@
       <c r="BA61" s="9"/>
       <c r="BB61" s="9"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>79</v>
       </c>
@@ -8221,41 +8221,41 @@
       <c r="AQ62" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR62" s="11" t="s">
-        <v>57</v>
+      <c r="AR62" s="11">
+        <v>313919</v>
       </c>
       <c r="AS62" s="11">
+        <v>520610</v>
+      </c>
+      <c r="AT62" s="11">
         <v>313919</v>
       </c>
-      <c r="AT62" s="11">
-        <v>520610</v>
-      </c>
       <c r="AU62" s="11">
-        <v>313919</v>
+        <v>487565</v>
       </c>
       <c r="AV62" s="11">
-        <v>487565</v>
+        <v>553851</v>
       </c>
       <c r="AW62" s="11">
-        <v>553851</v>
+        <v>632973</v>
       </c>
       <c r="AX62" s="11">
-        <v>632973</v>
+        <v>507101</v>
       </c>
       <c r="AY62" s="11">
-        <v>507101</v>
+        <v>505466</v>
       </c>
       <c r="AZ62" s="11">
-        <v>505466</v>
+        <v>502446</v>
       </c>
       <c r="BA62" s="11">
-        <v>502446</v>
+        <v>504785</v>
       </c>
       <c r="BB62" s="11">
-        <v>504785</v>
+        <v>572456</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>80</v>
       </c>
@@ -8380,41 +8380,41 @@
       <c r="AQ63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR63" s="13" t="s">
-        <v>57</v>
+      <c r="AR63" s="13">
+        <v>-297308</v>
       </c>
       <c r="AS63" s="13">
-        <v>-297308</v>
+        <v>-519550</v>
       </c>
       <c r="AT63" s="13">
-        <v>-519550</v>
+        <v>-254401</v>
       </c>
       <c r="AU63" s="13">
-        <v>-254401</v>
+        <v>-481687</v>
       </c>
       <c r="AV63" s="13">
-        <v>-481687</v>
+        <v>-501876</v>
       </c>
       <c r="AW63" s="13">
-        <v>-501876</v>
+        <v>-617799</v>
       </c>
       <c r="AX63" s="13">
-        <v>-617799</v>
+        <v>-461036</v>
       </c>
       <c r="AY63" s="13">
-        <v>-461036</v>
+        <v>-462756</v>
       </c>
       <c r="AZ63" s="13">
-        <v>-462756</v>
+        <v>-473567</v>
       </c>
       <c r="BA63" s="13">
-        <v>-473567</v>
+        <v>-485156</v>
       </c>
       <c r="BB63" s="13">
-        <v>-485156</v>
+        <v>-510333</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>81</v>
       </c>
@@ -8539,41 +8539,41 @@
       <c r="AQ64" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR64" s="11" t="s">
-        <v>57</v>
+      <c r="AR64" s="11">
+        <v>20192</v>
       </c>
       <c r="AS64" s="11">
-        <v>20192</v>
+        <v>17883</v>
       </c>
       <c r="AT64" s="11">
-        <v>17883</v>
+        <v>18526</v>
       </c>
       <c r="AU64" s="11">
-        <v>18526</v>
+        <v>-3187</v>
       </c>
       <c r="AV64" s="11">
-        <v>-3187</v>
+        <v>-1243</v>
       </c>
       <c r="AW64" s="11">
-        <v>-1243</v>
+        <v>2330</v>
       </c>
       <c r="AX64" s="11">
-        <v>2330</v>
+        <v>1758</v>
       </c>
       <c r="AY64" s="11">
-        <v>1758</v>
+        <v>89499</v>
       </c>
       <c r="AZ64" s="11">
-        <v>89499</v>
+        <v>3867</v>
       </c>
       <c r="BA64" s="11">
-        <v>3867</v>
+        <v>60643</v>
       </c>
       <c r="BB64" s="11">
-        <v>60643</v>
+        <v>20153</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>82</v>
       </c>
@@ -8630,7 +8630,7 @@
       <c r="BA65" s="15"/>
       <c r="BB65" s="15"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="16" t="s">
         <v>71</v>
       </c>
@@ -8692,8 +8692,8 @@
       <c r="V66" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W66" s="17" t="s">
-        <v>57</v>
+      <c r="W66" s="17">
+        <v>0</v>
       </c>
       <c r="X66" s="17">
         <v>0</v>
@@ -8755,8 +8755,8 @@
       <c r="AQ66" s="17">
         <v>0</v>
       </c>
-      <c r="AR66" s="17">
-        <v>0</v>
+      <c r="AR66" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AS66" s="17" t="s">
         <v>57</v>
@@ -8789,7 +8789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>83</v>
       </c>
@@ -8846,7 +8846,7 @@
       <c r="BA67" s="15"/>
       <c r="BB67" s="15"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
         <v>75</v>
       </c>
@@ -8908,8 +8908,8 @@
       <c r="V68" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W68" s="17" t="s">
-        <v>57</v>
+      <c r="W68" s="17">
+        <v>0</v>
       </c>
       <c r="X68" s="17">
         <v>0</v>
@@ -8971,8 +8971,8 @@
       <c r="AQ68" s="17">
         <v>0</v>
       </c>
-      <c r="AR68" s="17">
-        <v>0</v>
+      <c r="AR68" s="17" t="s">
+        <v>57</v>
       </c>
       <c r="AS68" s="17" t="s">
         <v>57</v>
@@ -9005,7 +9005,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
         <v>84</v>
       </c>
@@ -9062,7 +9062,7 @@
       <c r="BA69" s="9"/>
       <c r="BB69" s="9"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>85</v>
       </c>
@@ -9124,8 +9124,8 @@
       <c r="V70" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W70" s="11" t="s">
-        <v>57</v>
+      <c r="W70" s="11">
+        <v>0</v>
       </c>
       <c r="X70" s="11">
         <v>0</v>
@@ -9187,8 +9187,8 @@
       <c r="AQ70" s="11">
         <v>0</v>
       </c>
-      <c r="AR70" s="11">
-        <v>0</v>
+      <c r="AR70" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AS70" s="11" t="s">
         <v>57</v>
@@ -9221,164 +9221,164 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
       <c r="E71" s="19">
-        <v>72845</v>
+        <v>72279</v>
       </c>
       <c r="F71" s="19">
-        <v>72279</v>
+        <v>78623</v>
       </c>
       <c r="G71" s="19">
-        <v>78623</v>
+        <v>66691</v>
       </c>
       <c r="H71" s="19">
-        <v>66691</v>
+        <v>77333</v>
       </c>
       <c r="I71" s="19">
-        <v>77333</v>
+        <v>91597</v>
       </c>
       <c r="J71" s="19">
-        <v>91597</v>
+        <v>86350</v>
       </c>
       <c r="K71" s="19">
-        <v>86350</v>
+        <v>108325</v>
       </c>
       <c r="L71" s="19">
-        <v>108325</v>
+        <v>98838</v>
       </c>
       <c r="M71" s="19">
-        <v>98838</v>
+        <v>107748</v>
       </c>
       <c r="N71" s="19">
-        <v>107748</v>
+        <v>87696</v>
       </c>
       <c r="O71" s="19">
-        <v>87696</v>
+        <v>99582</v>
       </c>
       <c r="P71" s="19">
-        <v>99582</v>
+        <v>101727</v>
       </c>
       <c r="Q71" s="19">
-        <v>101727</v>
+        <v>96284</v>
       </c>
       <c r="R71" s="19">
-        <v>96284</v>
+        <v>109111</v>
       </c>
       <c r="S71" s="19">
-        <v>109111</v>
+        <v>92340</v>
       </c>
       <c r="T71" s="19">
-        <v>92340</v>
+        <v>115584</v>
       </c>
       <c r="U71" s="19">
-        <v>115584</v>
+        <v>117128</v>
       </c>
       <c r="V71" s="19">
-        <v>117128</v>
+        <v>106782</v>
       </c>
       <c r="W71" s="19">
-        <v>106782</v>
+        <v>118453</v>
       </c>
       <c r="X71" s="19">
-        <v>118453</v>
+        <v>129937</v>
       </c>
       <c r="Y71" s="19">
-        <v>129937</v>
+        <v>135942</v>
       </c>
       <c r="Z71" s="19">
-        <v>135942</v>
+        <v>145943</v>
       </c>
       <c r="AA71" s="19">
-        <v>145943</v>
+        <v>170981</v>
       </c>
       <c r="AB71" s="19">
-        <v>170981</v>
+        <v>190241</v>
       </c>
       <c r="AC71" s="19">
-        <v>190241</v>
+        <v>202566</v>
       </c>
       <c r="AD71" s="19">
-        <v>202566</v>
+        <v>219312</v>
       </c>
       <c r="AE71" s="19">
-        <v>219312</v>
+        <v>213812</v>
       </c>
       <c r="AF71" s="19">
-        <v>213812</v>
+        <v>242098</v>
       </c>
       <c r="AG71" s="19">
-        <v>242098</v>
+        <v>221798</v>
       </c>
       <c r="AH71" s="19">
-        <v>221798</v>
+        <v>216046</v>
       </c>
       <c r="AI71" s="19">
-        <v>216046</v>
+        <v>210376</v>
       </c>
       <c r="AJ71" s="19">
-        <v>210376</v>
+        <v>222242</v>
       </c>
       <c r="AK71" s="19">
-        <v>222242</v>
+        <v>277092</v>
       </c>
       <c r="AL71" s="19">
-        <v>277092</v>
+        <v>267435</v>
       </c>
       <c r="AM71" s="19">
-        <v>267435</v>
+        <v>293781</v>
       </c>
       <c r="AN71" s="19">
-        <v>293781</v>
+        <v>284380</v>
       </c>
       <c r="AO71" s="19">
-        <v>284380</v>
+        <v>297434</v>
       </c>
       <c r="AP71" s="19">
-        <v>297434</v>
+        <v>306603</v>
       </c>
       <c r="AQ71" s="19">
-        <v>306603</v>
+        <v>392428</v>
       </c>
       <c r="AR71" s="19">
-        <v>392428</v>
+        <v>372647</v>
       </c>
       <c r="AS71" s="19">
-        <v>372647</v>
+        <v>329143</v>
       </c>
       <c r="AT71" s="19">
-        <v>329143</v>
+        <v>624915</v>
       </c>
       <c r="AU71" s="19">
-        <v>624915</v>
+        <v>531179</v>
       </c>
       <c r="AV71" s="19">
-        <v>531179</v>
+        <v>559840</v>
       </c>
       <c r="AW71" s="19">
-        <v>559840</v>
+        <v>555611</v>
       </c>
       <c r="AX71" s="19">
-        <v>555611</v>
+        <v>644412</v>
       </c>
       <c r="AY71" s="19">
-        <v>644412</v>
+        <v>730292</v>
       </c>
       <c r="AZ71" s="19">
-        <v>730292</v>
+        <v>675519</v>
       </c>
       <c r="BA71" s="19">
-        <v>675519</v>
+        <v>716737</v>
       </c>
       <c r="BB71" s="19">
-        <v>716737</v>
+        <v>755770</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9433,7 +9433,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9488,7 +9488,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9543,7 +9543,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>86</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9755,7 +9755,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>87</v>
       </c>
@@ -9812,7 +9812,7 @@
       <c r="BA77" s="9"/>
       <c r="BB77" s="9"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>55</v>
       </c>
@@ -9821,17 +9821,17 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11">
-        <v>21652</v>
+        <v>21677</v>
       </c>
       <c r="F78" s="11">
-        <v>21677</v>
+        <v>21481</v>
       </c>
       <c r="G78" s="11">
-        <v>21481</v>
-      </c>
-      <c r="H78" s="11">
         <v>20259</v>
       </c>
+      <c r="H78" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="I78" s="11" t="s">
         <v>57</v>
       </c>
@@ -9865,86 +9865,86 @@
       <c r="S78" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T78" s="11" t="s">
-        <v>57</v>
+      <c r="T78" s="11">
+        <v>26157994</v>
       </c>
       <c r="U78" s="11">
-        <v>26157994</v>
+        <v>25924172</v>
       </c>
       <c r="V78" s="11">
-        <v>25924172</v>
+        <v>27994126</v>
       </c>
       <c r="W78" s="11">
-        <v>27994126</v>
+        <v>31975522</v>
       </c>
       <c r="X78" s="11">
-        <v>31975522</v>
+        <v>34708120</v>
       </c>
       <c r="Y78" s="11">
-        <v>34708120</v>
+        <v>36700028</v>
       </c>
       <c r="Z78" s="11">
-        <v>36700028</v>
+        <v>38221162</v>
       </c>
       <c r="AA78" s="11">
-        <v>38221162</v>
+        <v>44519470</v>
       </c>
       <c r="AB78" s="11">
-        <v>44519470</v>
+        <v>47821438</v>
       </c>
       <c r="AC78" s="11">
-        <v>47821438</v>
+        <v>48036542</v>
       </c>
       <c r="AD78" s="11">
-        <v>48036542</v>
+        <v>47368459</v>
       </c>
       <c r="AE78" s="11">
-        <v>47368459</v>
+        <v>46953732</v>
       </c>
       <c r="AF78" s="11">
-        <v>46953732</v>
+        <v>47052368</v>
       </c>
       <c r="AG78" s="11">
-        <v>47052368</v>
+        <v>49152291</v>
       </c>
       <c r="AH78" s="11">
-        <v>49152291</v>
+        <v>49680491</v>
       </c>
       <c r="AI78" s="11">
-        <v>49680491</v>
+        <v>51306112</v>
       </c>
       <c r="AJ78" s="11">
-        <v>51306112</v>
+        <v>53181704</v>
       </c>
       <c r="AK78" s="11">
-        <v>53181704</v>
+        <v>65681116</v>
       </c>
       <c r="AL78" s="11">
-        <v>65681116</v>
+        <v>65191840</v>
       </c>
       <c r="AM78" s="11">
-        <v>65191840</v>
+        <v>65618222</v>
       </c>
       <c r="AN78" s="11">
-        <v>65618222</v>
+        <v>66128354</v>
       </c>
       <c r="AO78" s="11">
-        <v>66128354</v>
+        <v>66561260</v>
       </c>
       <c r="AP78" s="11">
-        <v>66561260</v>
+        <v>66836073</v>
       </c>
       <c r="AQ78" s="11">
-        <v>66836073</v>
+        <v>66036565</v>
       </c>
       <c r="AR78" s="11">
-        <v>66036565</v>
+        <v>64000000</v>
       </c>
       <c r="AS78" s="11">
         <v>64000000</v>
       </c>
       <c r="AT78" s="11">
-        <v>64000000</v>
+        <v>120000000</v>
       </c>
       <c r="AU78" s="11">
         <v>120000000</v>
@@ -9971,7 +9971,7 @@
         <v>120000000</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>58</v>
       </c>
@@ -10093,12 +10093,12 @@
       <c r="AP79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AQ79" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR79" s="13">
+      <c r="AQ79" s="13">
         <v>1215043</v>
       </c>
+      <c r="AR79" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AS79" s="13" t="s">
         <v>57</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>59</v>
       </c>
@@ -10147,8 +10147,8 @@
       <c r="G80" s="11">
         <v>0</v>
       </c>
-      <c r="H80" s="11">
-        <v>0</v>
+      <c r="H80" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I80" s="11" t="s">
         <v>57</v>
@@ -10289,7 +10289,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>61</v>
       </c>
@@ -10306,8 +10306,8 @@
       <c r="G81" s="13">
         <v>0</v>
       </c>
-      <c r="H81" s="13">
-        <v>0</v>
+      <c r="H81" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="I81" s="13" t="s">
         <v>57</v>
@@ -10448,7 +10448,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>62</v>
       </c>
@@ -10465,8 +10465,8 @@
       <c r="G82" s="11">
         <v>0</v>
       </c>
-      <c r="H82" s="11">
-        <v>0</v>
+      <c r="H82" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I82" s="11" t="s">
         <v>57</v>
@@ -10607,7 +10607,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>63</v>
       </c>
@@ -10616,157 +10616,157 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13">
-        <v>37017143</v>
+        <v>60337838</v>
       </c>
       <c r="F83" s="13">
-        <v>60337838</v>
+        <v>71715447</v>
       </c>
       <c r="G83" s="13">
-        <v>71715447</v>
+        <v>80666667</v>
       </c>
       <c r="H83" s="13">
-        <v>80666667</v>
+        <v>105918919</v>
       </c>
       <c r="I83" s="13">
-        <v>105918919</v>
+        <v>93829897</v>
       </c>
       <c r="J83" s="13">
-        <v>93829897</v>
+        <v>45000000</v>
       </c>
       <c r="K83" s="13">
-        <v>45000000</v>
+        <v>81991342</v>
       </c>
       <c r="L83" s="13">
-        <v>81991342</v>
+        <v>81891473</v>
       </c>
       <c r="M83" s="13">
-        <v>81891473</v>
+        <v>81167568</v>
       </c>
       <c r="N83" s="13">
-        <v>81167568</v>
+        <v>68161290</v>
       </c>
       <c r="O83" s="13">
-        <v>68161290</v>
+        <v>74295455</v>
       </c>
       <c r="P83" s="13">
-        <v>74295455</v>
+        <v>68760204</v>
       </c>
       <c r="Q83" s="13">
-        <v>68760204</v>
+        <v>67714286</v>
       </c>
       <c r="R83" s="13">
-        <v>67714286</v>
+        <v>63909836</v>
       </c>
       <c r="S83" s="13">
-        <v>63909836</v>
+        <v>69611111</v>
       </c>
       <c r="T83" s="13">
-        <v>69611111</v>
+        <v>63060606</v>
       </c>
       <c r="U83" s="13">
-        <v>63060606</v>
+        <v>76118598</v>
       </c>
       <c r="V83" s="13">
-        <v>76118598</v>
+        <v>79615385</v>
       </c>
       <c r="W83" s="13">
-        <v>79615385</v>
+        <v>55173913</v>
       </c>
       <c r="X83" s="13">
-        <v>55173913</v>
+        <v>71123077</v>
       </c>
       <c r="Y83" s="13">
-        <v>71123077</v>
+        <v>58285714</v>
       </c>
       <c r="Z83" s="13">
-        <v>58285714</v>
+        <v>84127389</v>
       </c>
       <c r="AA83" s="13">
-        <v>84127389</v>
+        <v>81948718</v>
       </c>
       <c r="AB83" s="13">
-        <v>81948718</v>
+        <v>57000000</v>
       </c>
       <c r="AC83" s="13">
-        <v>57000000</v>
+        <v>54877551</v>
       </c>
       <c r="AD83" s="13">
-        <v>54877551</v>
+        <v>81008621</v>
       </c>
       <c r="AE83" s="13">
-        <v>81008621</v>
+        <v>78476744</v>
       </c>
       <c r="AF83" s="13">
-        <v>78476744</v>
+        <v>79956679</v>
       </c>
       <c r="AG83" s="13">
-        <v>79956679</v>
+        <v>77728324</v>
       </c>
       <c r="AH83" s="13">
-        <v>77728324</v>
+        <v>76871795</v>
       </c>
       <c r="AI83" s="13">
-        <v>76871795</v>
+        <v>65234043</v>
       </c>
       <c r="AJ83" s="13">
-        <v>65234043</v>
+        <v>83885714</v>
       </c>
       <c r="AK83" s="13">
-        <v>83885714</v>
+        <v>88105960</v>
       </c>
       <c r="AL83" s="13">
-        <v>88105960</v>
+        <v>81714286</v>
       </c>
       <c r="AM83" s="13">
-        <v>81714286</v>
+        <v>94631922</v>
       </c>
       <c r="AN83" s="13">
-        <v>94631922</v>
+        <v>80172932</v>
       </c>
       <c r="AO83" s="13">
-        <v>80172932</v>
+        <v>81587838</v>
       </c>
       <c r="AP83" s="13">
-        <v>81587838</v>
+        <v>76852459</v>
       </c>
       <c r="AQ83" s="13">
-        <v>76852459</v>
+        <v>95931579</v>
       </c>
       <c r="AR83" s="13">
-        <v>95931579</v>
+        <v>93478689</v>
       </c>
       <c r="AS83" s="13">
-        <v>93478689</v>
+        <v>65055556</v>
       </c>
       <c r="AT83" s="13">
-        <v>65055556</v>
+        <v>105076923</v>
       </c>
       <c r="AU83" s="13">
-        <v>105076923</v>
+        <v>131683761</v>
       </c>
       <c r="AV83" s="13">
-        <v>131683761</v>
+        <v>49825000</v>
       </c>
       <c r="AW83" s="13">
-        <v>49825000</v>
+        <v>139740132</v>
       </c>
       <c r="AX83" s="13">
-        <v>139740132</v>
+        <v>106500000</v>
       </c>
       <c r="AY83" s="13">
-        <v>106500000</v>
+        <v>111582915</v>
       </c>
       <c r="AZ83" s="13">
-        <v>111582915</v>
+        <v>126663768</v>
       </c>
       <c r="BA83" s="13">
-        <v>126663768</v>
+        <v>108593607</v>
       </c>
       <c r="BB83" s="13">
-        <v>108593607</v>
+        <v>123970772</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>65</v>
       </c>
@@ -10783,14 +10783,14 @@
       <c r="G84" s="11">
         <v>0</v>
       </c>
-      <c r="H84" s="11">
-        <v>0</v>
+      <c r="H84" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I84" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J84" s="11" t="s">
-        <v>57</v>
+      <c r="J84" s="11">
+        <v>0</v>
       </c>
       <c r="K84" s="11">
         <v>0</v>
@@ -10816,8 +10816,8 @@
       <c r="R84" s="11">
         <v>0</v>
       </c>
-      <c r="S84" s="11">
-        <v>0</v>
+      <c r="S84" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="T84" s="11" t="s">
         <v>57</v>
@@ -10925,7 +10925,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>67</v>
       </c>
@@ -10942,45 +10942,45 @@
       <c r="G85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H85" s="13" t="s">
-        <v>57</v>
+      <c r="H85" s="13">
+        <v>21605062</v>
       </c>
       <c r="I85" s="13">
-        <v>21605062</v>
+        <v>21908657</v>
       </c>
       <c r="J85" s="13">
-        <v>21908657</v>
+        <v>24461988</v>
       </c>
       <c r="K85" s="13">
-        <v>24461988</v>
+        <v>25429822</v>
       </c>
       <c r="L85" s="13">
-        <v>25429822</v>
+        <v>26260283</v>
       </c>
       <c r="M85" s="13">
-        <v>26260283</v>
+        <v>26919640</v>
       </c>
       <c r="N85" s="13">
-        <v>26919640</v>
+        <v>27113505</v>
       </c>
       <c r="O85" s="13">
-        <v>27113505</v>
+        <v>27166412</v>
       </c>
       <c r="P85" s="13">
-        <v>27166412</v>
+        <v>27012550</v>
       </c>
       <c r="Q85" s="13">
-        <v>27012550</v>
+        <v>26712577</v>
       </c>
       <c r="R85" s="13">
-        <v>26712577</v>
+        <v>26721734</v>
       </c>
       <c r="S85" s="13">
-        <v>26721734</v>
-      </c>
-      <c r="T85" s="13">
         <v>25962836</v>
       </c>
+      <c r="T85" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="U85" s="13" t="s">
         <v>57</v>
       </c>
@@ -11084,7 +11084,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>68</v>
       </c>
@@ -11101,8 +11101,8 @@
       <c r="G86" s="11">
         <v>0</v>
       </c>
-      <c r="H86" s="11">
-        <v>0</v>
+      <c r="H86" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="I86" s="11" t="s">
         <v>57</v>

--- a/database/industries/zeraat/zegoldasht/product/monthly.xlsx
+++ b/database/industries/zeraat/zegoldasht/product/monthly.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1973" uniqueCount="92">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3388,11 +3388,11 @@
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12" t="n">
-        <v>3326312</v>
-      </c>
-      <c r="F11" s="12" t="n">
         <v>3217665</v>
       </c>
+      <c r="F11" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="G11" s="13" t="s">
         <v>57</v>
       </c>
@@ -3426,116 +3426,116 @@
       <c r="Q11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>57</v>
+      <c r="R11" s="13" t="n">
+        <v>3809</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>3809</v>
+        <v>3701</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>3701</v>
+        <v>3648</v>
       </c>
       <c r="U11" s="13" t="n">
-        <v>3648</v>
+        <v>3676</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>3676</v>
+        <v>3616</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>3616</v>
+        <v>3644</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>3644</v>
+        <v>3550</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>3550</v>
+        <v>3722</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>3722</v>
+        <v>3949</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>3949</v>
+        <v>4119</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>4119</v>
+        <v>4278</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>4278</v>
+        <v>4372</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>4372</v>
+        <v>4539</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>4539</v>
+        <v>4413</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>4413</v>
+        <v>4211</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>4211</v>
+        <v>4133</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>4133</v>
+        <v>4128</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>4128</v>
+        <v>4169</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>4169</v>
+        <v>4086</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>4086</v>
+        <v>4237</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>4237</v>
+        <v>4316</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>4316</v>
+        <v>4444</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>4444</v>
+        <v>4507</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>4507</v>
+        <v>4565</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>4565</v>
+        <v>4758</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>4758</v>
+        <v>4704</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>4704</v>
+        <v>4512</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>4512</v>
+        <v>4424</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>4424</v>
+        <v>4381</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>4381</v>
+        <v>4581</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>4581</v>
+        <v>4615</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>4615</v>
+        <v>4908</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>4908</v>
+        <v>5018</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>5018</v>
+        <v>5048</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>5048</v>
+        <v>5082</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>5082</v>
+        <v>5116</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>5116</v>
+        <v>5625</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,12 +3654,12 @@
       <c r="AN12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO12" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP12" s="16" t="n">
+      <c r="AO12" s="16" t="n">
         <v>38295</v>
       </c>
+      <c r="AP12" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ12" s="16" t="s">
         <v>57</v>
       </c>
@@ -3693,8 +3693,8 @@
       <c r="BA12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BB12" s="16" t="s">
-        <v>57</v>
+      <c r="BB12" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3708,8 +3708,8 @@
       <c r="E13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F13" s="13" t="n">
-        <v>0</v>
+      <c r="F13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G13" s="13" t="s">
         <v>57</v>
@@ -3867,8 +3867,8 @@
       <c r="E14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="F14" s="16" t="n">
-        <v>0</v>
+      <c r="F14" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>57</v>
@@ -4026,8 +4026,8 @@
       <c r="E15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="13" t="n">
-        <v>0</v>
+      <c r="F15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>57</v>
@@ -4183,154 +4183,154 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="n">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="F16" s="16" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G16" s="16" t="n">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="H16" s="16" t="n">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="I16" s="16" t="n">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="J16" s="16" t="n">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="K16" s="16" t="n">
         <v>132</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M16" s="16" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="N16" s="16" t="n">
+        <v>167</v>
+      </c>
+      <c r="O16" s="16" t="n">
+        <v>147</v>
+      </c>
+      <c r="P16" s="16" t="n">
+        <v>124</v>
+      </c>
+      <c r="Q16" s="16" t="n">
+        <v>84</v>
+      </c>
+      <c r="R16" s="16" t="n">
+        <v>111</v>
+      </c>
+      <c r="S16" s="16" t="n">
+        <v>105</v>
+      </c>
+      <c r="T16" s="16" t="n">
+        <v>125</v>
+      </c>
+      <c r="U16" s="16" t="n">
+        <v>128</v>
+      </c>
+      <c r="V16" s="16" t="n">
+        <v>182</v>
+      </c>
+      <c r="W16" s="16" t="n">
+        <v>174</v>
+      </c>
+      <c r="X16" s="16" t="n">
+        <v>179</v>
+      </c>
+      <c r="Y16" s="16" t="n">
+        <v>219</v>
+      </c>
+      <c r="Z16" s="16" t="n">
+        <v>193</v>
+      </c>
+      <c r="AA16" s="16" t="n">
+        <v>183</v>
+      </c>
+      <c r="AB16" s="16" t="n">
+        <v>164</v>
+      </c>
+      <c r="AC16" s="16" t="n">
+        <v>121</v>
+      </c>
+      <c r="AD16" s="16" t="n">
+        <v>117</v>
+      </c>
+      <c r="AE16" s="16" t="n">
+        <v>140</v>
+      </c>
+      <c r="AF16" s="16" t="n">
+        <v>137</v>
+      </c>
+      <c r="AG16" s="16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH16" s="16" t="n">
+        <v>181</v>
+      </c>
+      <c r="AI16" s="16" t="n">
+        <v>157</v>
+      </c>
+      <c r="AJ16" s="16" t="n">
+        <v>172</v>
+      </c>
+      <c r="AK16" s="16" t="n">
         <v>144</v>
       </c>
-      <c r="O16" s="16" t="n">
-        <v>167</v>
-      </c>
-      <c r="P16" s="16" t="n">
-        <v>147</v>
-      </c>
-      <c r="Q16" s="16" t="n">
-        <v>124</v>
-      </c>
-      <c r="R16" s="16" t="n">
-        <v>84</v>
-      </c>
-      <c r="S16" s="16" t="n">
-        <v>111</v>
-      </c>
-      <c r="T16" s="16" t="n">
-        <v>105</v>
-      </c>
-      <c r="U16" s="16" t="n">
-        <v>125</v>
-      </c>
-      <c r="V16" s="16" t="n">
-        <v>128</v>
-      </c>
-      <c r="W16" s="16" t="n">
-        <v>182</v>
-      </c>
-      <c r="X16" s="16" t="n">
-        <v>174</v>
-      </c>
-      <c r="Y16" s="16" t="n">
-        <v>179</v>
-      </c>
-      <c r="Z16" s="16" t="n">
-        <v>219</v>
-      </c>
-      <c r="AA16" s="16" t="n">
-        <v>193</v>
-      </c>
-      <c r="AB16" s="16" t="n">
-        <v>183</v>
-      </c>
-      <c r="AC16" s="16" t="n">
-        <v>164</v>
-      </c>
-      <c r="AD16" s="16" t="n">
-        <v>121</v>
-      </c>
-      <c r="AE16" s="16" t="n">
-        <v>117</v>
-      </c>
-      <c r="AF16" s="16" t="n">
+      <c r="AL16" s="16" t="n">
+        <v>139</v>
+      </c>
+      <c r="AM16" s="16" t="n">
+        <v>184</v>
+      </c>
+      <c r="AN16" s="16" t="n">
+        <v>142</v>
+      </c>
+      <c r="AO16" s="16" t="n">
         <v>140</v>
       </c>
-      <c r="AG16" s="16" t="n">
+      <c r="AP16" s="16" t="n">
+        <v>130</v>
+      </c>
+      <c r="AQ16" s="16" t="n">
         <v>137</v>
       </c>
-      <c r="AH16" s="16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AI16" s="16" t="n">
-        <v>181</v>
-      </c>
-      <c r="AJ16" s="16" t="n">
-        <v>157</v>
-      </c>
-      <c r="AK16" s="16" t="n">
-        <v>172</v>
-      </c>
-      <c r="AL16" s="16" t="n">
-        <v>144</v>
-      </c>
-      <c r="AM16" s="16" t="n">
-        <v>139</v>
-      </c>
-      <c r="AN16" s="16" t="n">
-        <v>184</v>
-      </c>
-      <c r="AO16" s="16" t="n">
-        <v>142</v>
-      </c>
-      <c r="AP16" s="16" t="n">
-        <v>140</v>
-      </c>
-      <c r="AQ16" s="16" t="n">
-        <v>130</v>
-      </c>
       <c r="AR16" s="16" t="n">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>148</v>
+        <v>205</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="AU16" s="16" t="n">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="AV16" s="16" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AW16" s="16" t="n">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="AX16" s="16" t="n">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="AY16" s="16" t="n">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="AZ16" s="16" t="n">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="BA16" s="16" t="n">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="BB16" s="16" t="n">
-        <v>180</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4344,14 +4344,14 @@
       <c r="E17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F17" s="13" t="n">
-        <v>0</v>
+      <c r="F17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>57</v>
+      <c r="H17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="I17" s="13" t="n">
         <v>0</v>
@@ -4452,8 +4452,8 @@
       <c r="AO17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP17" s="13" t="n">
-        <v>0</v>
+      <c r="AP17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ17" s="13" t="s">
         <v>57</v>
@@ -4503,44 +4503,44 @@
       <c r="E18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>57</v>
+      <c r="F18" s="16" t="n">
+        <v>3493</v>
       </c>
       <c r="G18" s="16" t="n">
+        <v>3471</v>
+      </c>
+      <c r="H18" s="16" t="n">
+        <v>3470</v>
+      </c>
+      <c r="I18" s="16" t="n">
+        <v>3295</v>
+      </c>
+      <c r="J18" s="16" t="n">
+        <v>3305</v>
+      </c>
+      <c r="K18" s="16" t="n">
+        <v>3356</v>
+      </c>
+      <c r="L18" s="16" t="n">
+        <v>3196</v>
+      </c>
+      <c r="M18" s="16" t="n">
+        <v>3356</v>
+      </c>
+      <c r="N18" s="16" t="n">
+        <v>3374</v>
+      </c>
+      <c r="O18" s="16" t="n">
+        <v>3529</v>
+      </c>
+      <c r="P18" s="16" t="n">
+        <v>3676</v>
+      </c>
+      <c r="Q18" s="16" t="n">
         <v>3493</v>
       </c>
-      <c r="H18" s="16" t="n">
-        <v>3471</v>
-      </c>
-      <c r="I18" s="16" t="n">
-        <v>3470</v>
-      </c>
-      <c r="J18" s="16" t="n">
-        <v>3295</v>
-      </c>
-      <c r="K18" s="16" t="n">
-        <v>3305</v>
-      </c>
-      <c r="L18" s="16" t="n">
-        <v>3356</v>
-      </c>
-      <c r="M18" s="16" t="n">
-        <v>3196</v>
-      </c>
-      <c r="N18" s="16" t="n">
-        <v>3356</v>
-      </c>
-      <c r="O18" s="16" t="n">
-        <v>3374</v>
-      </c>
-      <c r="P18" s="16" t="n">
-        <v>3529</v>
-      </c>
-      <c r="Q18" s="16" t="n">
-        <v>3676</v>
-      </c>
-      <c r="R18" s="16" t="n">
-        <v>3493</v>
+      <c r="R18" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S18" s="16" t="s">
         <v>57</v>
@@ -4662,8 +4662,8 @@
       <c r="E19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F19" s="13" t="n">
-        <v>0</v>
+      <c r="F19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>57</v>
@@ -4929,8 +4929,8 @@
       <c r="AO20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP20" s="16" t="s">
-        <v>57</v>
+      <c r="AP20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ20" s="16" t="n">
         <v>0</v>
@@ -5080,8 +5080,8 @@
       <c r="T22" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U22" s="20" t="s">
-        <v>57</v>
+      <c r="U22" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V22" s="20" t="n">
         <v>0</v>
@@ -5143,8 +5143,8 @@
       <c r="AO22" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AP22" s="20" t="n">
-        <v>0</v>
+      <c r="AP22" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AQ22" s="20" t="s">
         <v>57</v>
@@ -5190,154 +5190,154 @@
       <c r="C23" s="22"/>
       <c r="D23" s="22"/>
       <c r="E23" s="22" t="n">
-        <v>3326477</v>
+        <v>3217777</v>
       </c>
       <c r="F23" s="22" t="n">
-        <v>3217777</v>
+        <v>3604</v>
       </c>
       <c r="G23" s="22" t="n">
-        <v>3604</v>
+        <v>3600</v>
       </c>
       <c r="H23" s="22" t="n">
-        <v>3600</v>
+        <v>3618</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>3618</v>
+        <v>3455</v>
       </c>
       <c r="J23" s="22" t="n">
-        <v>3455</v>
+        <v>3437</v>
       </c>
       <c r="K23" s="22" t="n">
-        <v>3437</v>
+        <v>3488</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>3488</v>
+        <v>3331</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>3331</v>
+        <v>3500</v>
       </c>
       <c r="N23" s="22" t="n">
-        <v>3500</v>
+        <v>3541</v>
       </c>
       <c r="O23" s="22" t="n">
-        <v>3541</v>
+        <v>3676</v>
       </c>
       <c r="P23" s="22" t="n">
-        <v>3676</v>
+        <v>3800</v>
       </c>
       <c r="Q23" s="22" t="n">
-        <v>3800</v>
+        <v>3577</v>
       </c>
       <c r="R23" s="22" t="n">
-        <v>3577</v>
+        <v>3920</v>
       </c>
       <c r="S23" s="22" t="n">
-        <v>3920</v>
+        <v>3806</v>
       </c>
       <c r="T23" s="22" t="n">
-        <v>3806</v>
+        <v>3773</v>
       </c>
       <c r="U23" s="22" t="n">
-        <v>3773</v>
+        <v>3804</v>
       </c>
       <c r="V23" s="22" t="n">
-        <v>3804</v>
+        <v>3798</v>
       </c>
       <c r="W23" s="22" t="n">
-        <v>3798</v>
+        <v>3818</v>
       </c>
       <c r="X23" s="22" t="n">
-        <v>3818</v>
+        <v>3729</v>
       </c>
       <c r="Y23" s="22" t="n">
-        <v>3729</v>
+        <v>3941</v>
       </c>
       <c r="Z23" s="22" t="n">
-        <v>3941</v>
+        <v>4142</v>
       </c>
       <c r="AA23" s="22" t="n">
-        <v>4142</v>
+        <v>4302</v>
       </c>
       <c r="AB23" s="22" t="n">
-        <v>4302</v>
+        <v>4442</v>
       </c>
       <c r="AC23" s="22" t="n">
-        <v>4442</v>
+        <v>4493</v>
       </c>
       <c r="AD23" s="22" t="n">
-        <v>4493</v>
+        <v>4656</v>
       </c>
       <c r="AE23" s="22" t="n">
-        <v>4656</v>
+        <v>4553</v>
       </c>
       <c r="AF23" s="22" t="n">
-        <v>4553</v>
+        <v>4348</v>
       </c>
       <c r="AG23" s="22" t="n">
-        <v>4348</v>
+        <v>4284</v>
       </c>
       <c r="AH23" s="22" t="n">
-        <v>4284</v>
+        <v>4309</v>
       </c>
       <c r="AI23" s="22" t="n">
-        <v>4309</v>
+        <v>4326</v>
       </c>
       <c r="AJ23" s="22" t="n">
-        <v>4326</v>
+        <v>4258</v>
       </c>
       <c r="AK23" s="22" t="n">
-        <v>4258</v>
+        <v>4381</v>
       </c>
       <c r="AL23" s="22" t="n">
-        <v>4381</v>
+        <v>4455</v>
       </c>
       <c r="AM23" s="22" t="n">
-        <v>4455</v>
+        <v>4628</v>
       </c>
       <c r="AN23" s="22" t="n">
-        <v>4628</v>
+        <v>4649</v>
       </c>
       <c r="AO23" s="22" t="n">
-        <v>4649</v>
+        <v>43000</v>
       </c>
       <c r="AP23" s="22" t="n">
-        <v>43000</v>
+        <v>4888</v>
       </c>
       <c r="AQ23" s="22" t="n">
-        <v>4888</v>
+        <v>4841</v>
       </c>
       <c r="AR23" s="22" t="n">
-        <v>4841</v>
+        <v>4660</v>
       </c>
       <c r="AS23" s="22" t="n">
-        <v>4660</v>
+        <v>4629</v>
       </c>
       <c r="AT23" s="22" t="n">
-        <v>4629</v>
+        <v>4592</v>
       </c>
       <c r="AU23" s="22" t="n">
-        <v>4592</v>
+        <v>4820</v>
       </c>
       <c r="AV23" s="22" t="n">
-        <v>4820</v>
+        <v>4852</v>
       </c>
       <c r="AW23" s="22" t="n">
-        <v>4852</v>
+        <v>5118</v>
       </c>
       <c r="AX23" s="22" t="n">
-        <v>5118</v>
+        <v>5233</v>
       </c>
       <c r="AY23" s="22" t="n">
-        <v>5233</v>
+        <v>5254</v>
       </c>
       <c r="AZ23" s="22" t="n">
-        <v>5254</v>
+        <v>5253</v>
       </c>
       <c r="BA23" s="22" t="n">
-        <v>5253</v>
+        <v>5296</v>
       </c>
       <c r="BB23" s="22" t="n">
-        <v>5296</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5783,11 +5783,11 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="13" t="n">
-        <v>3249517</v>
-      </c>
-      <c r="F30" s="13" t="n">
         <v>3150100</v>
       </c>
+      <c r="F30" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="G30" s="13" t="s">
         <v>57</v>
       </c>
@@ -5821,116 +5821,116 @@
       <c r="Q30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R30" s="13" t="s">
-        <v>57</v>
+      <c r="R30" s="13" t="n">
+        <v>3709</v>
       </c>
       <c r="S30" s="13" t="n">
-        <v>3709</v>
+        <v>3653</v>
       </c>
       <c r="T30" s="13" t="n">
-        <v>3653</v>
+        <v>3575</v>
       </c>
       <c r="U30" s="13" t="n">
-        <v>3575</v>
+        <v>3595</v>
       </c>
       <c r="V30" s="13" t="n">
-        <v>3595</v>
+        <v>3522</v>
       </c>
       <c r="W30" s="13" t="n">
-        <v>3522</v>
+        <v>3557</v>
       </c>
       <c r="X30" s="13" t="n">
-        <v>3557</v>
+        <v>3459</v>
       </c>
       <c r="Y30" s="13" t="n">
-        <v>3459</v>
+        <v>3621</v>
       </c>
       <c r="Z30" s="13" t="n">
-        <v>3621</v>
+        <v>3853</v>
       </c>
       <c r="AA30" s="13" t="n">
-        <v>3853</v>
+        <v>3968</v>
       </c>
       <c r="AB30" s="13" t="n">
-        <v>3968</v>
+        <v>4128</v>
       </c>
       <c r="AC30" s="13" t="n">
-        <v>4128</v>
+        <v>4193</v>
       </c>
       <c r="AD30" s="13" t="n">
-        <v>4193</v>
+        <v>4392</v>
       </c>
       <c r="AE30" s="13" t="n">
-        <v>4392</v>
+        <v>4255</v>
       </c>
       <c r="AF30" s="13" t="n">
-        <v>4255</v>
+        <v>4075</v>
       </c>
       <c r="AG30" s="13" t="n">
-        <v>4075</v>
+        <v>3992</v>
       </c>
       <c r="AH30" s="13" t="n">
-        <v>3992</v>
+        <v>3979</v>
       </c>
       <c r="AI30" s="13" t="n">
-        <v>3979</v>
+        <v>4014</v>
       </c>
       <c r="AJ30" s="13" t="n">
-        <v>4014</v>
+        <v>3946</v>
       </c>
       <c r="AK30" s="13" t="n">
-        <v>3946</v>
+        <v>4094</v>
       </c>
       <c r="AL30" s="13" t="n">
-        <v>4094</v>
+        <v>4137</v>
       </c>
       <c r="AM30" s="13" t="n">
-        <v>4137</v>
+        <v>4285</v>
       </c>
       <c r="AN30" s="13" t="n">
-        <v>4285</v>
+        <v>4441</v>
       </c>
       <c r="AO30" s="13" t="n">
-        <v>4441</v>
+        <v>4157</v>
       </c>
       <c r="AP30" s="13" t="n">
-        <v>4157</v>
+        <v>4636</v>
       </c>
       <c r="AQ30" s="13" t="n">
-        <v>4636</v>
+        <v>4549</v>
       </c>
       <c r="AR30" s="13" t="n">
-        <v>4549</v>
+        <v>4384</v>
       </c>
       <c r="AS30" s="13" t="n">
-        <v>4384</v>
+        <v>4274</v>
       </c>
       <c r="AT30" s="13" t="n">
-        <v>4274</v>
+        <v>4215</v>
       </c>
       <c r="AU30" s="13" t="n">
-        <v>4215</v>
+        <v>4309</v>
       </c>
       <c r="AV30" s="13" t="n">
-        <v>4309</v>
+        <v>4462</v>
       </c>
       <c r="AW30" s="13" t="n">
-        <v>4462</v>
+        <v>4678</v>
       </c>
       <c r="AX30" s="13" t="n">
-        <v>4678</v>
+        <v>4803</v>
       </c>
       <c r="AY30" s="13" t="n">
-        <v>4803</v>
+        <v>4894</v>
       </c>
       <c r="AZ30" s="13" t="n">
-        <v>4894</v>
+        <v>4909</v>
       </c>
       <c r="BA30" s="13" t="n">
-        <v>4909</v>
+        <v>4975</v>
       </c>
       <c r="BB30" s="13" t="n">
-        <v>4975</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6049,12 +6049,12 @@
       <c r="AN31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO31" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP31" s="16" t="n">
+      <c r="AO31" s="16" t="n">
         <v>67233</v>
       </c>
+      <c r="AP31" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ31" s="16" t="s">
         <v>57</v>
       </c>
@@ -6088,8 +6088,8 @@
       <c r="BA31" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BB31" s="16" t="s">
-        <v>57</v>
+      <c r="BB31" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6103,8 +6103,8 @@
       <c r="E32" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="13" t="n">
-        <v>0</v>
+      <c r="F32" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>57</v>
@@ -6262,8 +6262,8 @@
       <c r="E33" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="F33" s="16" t="n">
-        <v>0</v>
+      <c r="F33" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>57</v>
@@ -6421,8 +6421,8 @@
       <c r="E34" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F34" s="13" t="n">
-        <v>0</v>
+      <c r="F34" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G34" s="13" t="s">
         <v>57</v>
@@ -6578,154 +6578,154 @@
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16" t="n">
-        <v>123</v>
+        <v>6</v>
       </c>
       <c r="F35" s="16" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="G35" s="16" t="n">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="H35" s="16" t="n">
+        <v>19</v>
+      </c>
+      <c r="I35" s="16" t="n">
+        <v>231</v>
+      </c>
+      <c r="J35" s="16" t="n">
+        <v>129</v>
+      </c>
+      <c r="K35" s="16" t="n">
+        <v>185</v>
+      </c>
+      <c r="L35" s="16" t="n">
+        <v>31</v>
+      </c>
+      <c r="M35" s="16" t="n">
+        <v>132</v>
+      </c>
+      <c r="N35" s="16" t="n">
+        <v>196</v>
+      </c>
+      <c r="O35" s="16" t="n">
+        <v>70</v>
+      </c>
+      <c r="P35" s="16" t="n">
+        <v>122</v>
+      </c>
+      <c r="Q35" s="16" t="n">
+        <v>108</v>
+      </c>
+      <c r="R35" s="16" t="n">
+        <v>33</v>
+      </c>
+      <c r="S35" s="16" t="n">
+        <v>371</v>
+      </c>
+      <c r="T35" s="16" t="n">
+        <v>91</v>
+      </c>
+      <c r="U35" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="V35" s="16" t="n">
+        <v>65</v>
+      </c>
+      <c r="W35" s="16" t="n">
+        <v>35</v>
+      </c>
+      <c r="X35" s="16" t="n">
+        <v>157</v>
+      </c>
+      <c r="Y35" s="16" t="n">
+        <v>78</v>
+      </c>
+      <c r="Z35" s="16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA35" s="16" t="n">
+        <v>245</v>
+      </c>
+      <c r="AB35" s="16" t="n">
+        <v>348</v>
+      </c>
+      <c r="AC35" s="16" t="n">
+        <v>258</v>
+      </c>
+      <c r="AD35" s="16" t="n">
+        <v>277</v>
+      </c>
+      <c r="AE35" s="16" t="n">
+        <v>173</v>
+      </c>
+      <c r="AF35" s="16" t="n">
+        <v>195</v>
+      </c>
+      <c r="AG35" s="16" t="n">
+        <v>47</v>
+      </c>
+      <c r="AH35" s="16" t="n">
+        <v>105</v>
+      </c>
+      <c r="AI35" s="16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AJ35" s="16" t="n">
+        <v>105</v>
+      </c>
+      <c r="AK35" s="16" t="n">
+        <v>307</v>
+      </c>
+      <c r="AL35" s="16" t="n">
+        <v>133</v>
+      </c>
+      <c r="AM35" s="16" t="n">
+        <v>148</v>
+      </c>
+      <c r="AN35" s="16" t="n">
+        <v>122</v>
+      </c>
+      <c r="AO35" s="16" t="n">
+        <v>190</v>
+      </c>
+      <c r="AP35" s="16" t="n">
+        <v>305</v>
+      </c>
+      <c r="AQ35" s="16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR35" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS35" s="16" t="n">
+        <v>117</v>
+      </c>
+      <c r="AT35" s="16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AU35" s="16" t="n">
+        <v>304</v>
+      </c>
+      <c r="AV35" s="16" t="n">
+        <v>428</v>
+      </c>
+      <c r="AW35" s="16" t="n">
+        <v>199</v>
+      </c>
+      <c r="AX35" s="16" t="n">
+        <v>345</v>
+      </c>
+      <c r="AY35" s="16" t="n">
+        <v>219</v>
+      </c>
+      <c r="AZ35" s="16" t="n">
+        <v>479</v>
+      </c>
+      <c r="BA35" s="16" t="n">
         <v>194</v>
       </c>
-      <c r="I35" s="16" t="n">
-        <v>19</v>
-      </c>
-      <c r="J35" s="16" t="n">
-        <v>231</v>
-      </c>
-      <c r="K35" s="16" t="n">
-        <v>129</v>
-      </c>
-      <c r="L35" s="16" t="n">
-        <v>185</v>
-      </c>
-      <c r="M35" s="16" t="n">
-        <v>31</v>
-      </c>
-      <c r="N35" s="16" t="n">
-        <v>132</v>
-      </c>
-      <c r="O35" s="16" t="n">
-        <v>196</v>
-      </c>
-      <c r="P35" s="16" t="n">
-        <v>70</v>
-      </c>
-      <c r="Q35" s="16" t="n">
-        <v>122</v>
-      </c>
-      <c r="R35" s="16" t="n">
-        <v>108</v>
-      </c>
-      <c r="S35" s="16" t="n">
-        <v>33</v>
-      </c>
-      <c r="T35" s="16" t="n">
-        <v>371</v>
-      </c>
-      <c r="U35" s="16" t="n">
-        <v>91</v>
-      </c>
-      <c r="V35" s="16" t="n">
-        <v>23</v>
-      </c>
-      <c r="W35" s="16" t="n">
-        <v>65</v>
-      </c>
-      <c r="X35" s="16" t="n">
+      <c r="BB35" s="16" t="n">
         <v>35</v>
-      </c>
-      <c r="Y35" s="16" t="n">
-        <v>157</v>
-      </c>
-      <c r="Z35" s="16" t="n">
-        <v>78</v>
-      </c>
-      <c r="AA35" s="16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB35" s="16" t="n">
-        <v>245</v>
-      </c>
-      <c r="AC35" s="16" t="n">
-        <v>348</v>
-      </c>
-      <c r="AD35" s="16" t="n">
-        <v>258</v>
-      </c>
-      <c r="AE35" s="16" t="n">
-        <v>277</v>
-      </c>
-      <c r="AF35" s="16" t="n">
-        <v>173</v>
-      </c>
-      <c r="AG35" s="16" t="n">
-        <v>195</v>
-      </c>
-      <c r="AH35" s="16" t="n">
-        <v>47</v>
-      </c>
-      <c r="AI35" s="16" t="n">
-        <v>105</v>
-      </c>
-      <c r="AJ35" s="16" t="n">
-        <v>151</v>
-      </c>
-      <c r="AK35" s="16" t="n">
-        <v>105</v>
-      </c>
-      <c r="AL35" s="16" t="n">
-        <v>307</v>
-      </c>
-      <c r="AM35" s="16" t="n">
-        <v>133</v>
-      </c>
-      <c r="AN35" s="16" t="n">
-        <v>148</v>
-      </c>
-      <c r="AO35" s="16" t="n">
-        <v>122</v>
-      </c>
-      <c r="AP35" s="16" t="n">
-        <v>190</v>
-      </c>
-      <c r="AQ35" s="16" t="n">
-        <v>305</v>
-      </c>
-      <c r="AR35" s="16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AS35" s="16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT35" s="16" t="n">
-        <v>117</v>
-      </c>
-      <c r="AU35" s="16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AV35" s="16" t="n">
-        <v>304</v>
-      </c>
-      <c r="AW35" s="16" t="n">
-        <v>428</v>
-      </c>
-      <c r="AX35" s="16" t="n">
-        <v>199</v>
-      </c>
-      <c r="AY35" s="16" t="n">
-        <v>345</v>
-      </c>
-      <c r="AZ35" s="16" t="n">
-        <v>219</v>
-      </c>
-      <c r="BA35" s="16" t="n">
-        <v>479</v>
-      </c>
-      <c r="BB35" s="16" t="n">
-        <v>194</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6739,14 +6739,14 @@
       <c r="E36" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F36" s="13" t="n">
-        <v>0</v>
+      <c r="F36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="13" t="s">
-        <v>57</v>
+      <c r="H36" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="I36" s="13" t="n">
         <v>0</v>
@@ -6847,8 +6847,8 @@
       <c r="AO36" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP36" s="13" t="n">
-        <v>0</v>
+      <c r="AP36" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ36" s="13" t="s">
         <v>57</v>
@@ -6898,44 +6898,44 @@
       <c r="E37" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="16" t="s">
-        <v>57</v>
+      <c r="F37" s="16" t="n">
+        <v>3398</v>
       </c>
       <c r="G37" s="16" t="n">
-        <v>3398</v>
+        <v>3350</v>
       </c>
       <c r="H37" s="16" t="n">
-        <v>3350</v>
+        <v>3420</v>
       </c>
       <c r="I37" s="16" t="n">
-        <v>3420</v>
+        <v>3199</v>
       </c>
       <c r="J37" s="16" t="n">
-        <v>3199</v>
+        <v>3185</v>
       </c>
       <c r="K37" s="16" t="n">
-        <v>3185</v>
+        <v>3223</v>
       </c>
       <c r="L37" s="16" t="n">
-        <v>3223</v>
+        <v>3110</v>
       </c>
       <c r="M37" s="16" t="n">
-        <v>3110</v>
+        <v>3269</v>
       </c>
       <c r="N37" s="16" t="n">
-        <v>3269</v>
+        <v>3267</v>
       </c>
       <c r="O37" s="16" t="n">
-        <v>3267</v>
+        <v>3427</v>
       </c>
       <c r="P37" s="16" t="n">
-        <v>3427</v>
+        <v>3529</v>
       </c>
       <c r="Q37" s="16" t="n">
-        <v>3529</v>
-      </c>
-      <c r="R37" s="16" t="n">
         <v>3498</v>
+      </c>
+      <c r="R37" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S37" s="16" t="s">
         <v>57</v>
@@ -7057,8 +7057,8 @@
       <c r="E38" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F38" s="13" t="n">
-        <v>0</v>
+      <c r="F38" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>57</v>
@@ -7324,8 +7324,8 @@
       <c r="AO39" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP39" s="16" t="s">
-        <v>57</v>
+      <c r="AP39" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ39" s="16" t="n">
         <v>0</v>
@@ -7475,8 +7475,8 @@
       <c r="T41" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U41" s="20" t="s">
-        <v>57</v>
+      <c r="U41" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V41" s="20" t="n">
         <v>0</v>
@@ -7538,8 +7538,8 @@
       <c r="AO41" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AP41" s="20" t="n">
-        <v>0</v>
+      <c r="AP41" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AQ41" s="20" t="s">
         <v>57</v>
@@ -7689,8 +7689,8 @@
       <c r="T43" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U43" s="20" t="s">
-        <v>57</v>
+      <c r="U43" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="20" t="n">
         <v>0</v>
@@ -7752,8 +7752,8 @@
       <c r="AO43" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="AP43" s="20" t="n">
-        <v>0</v>
+      <c r="AP43" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AQ43" s="20" t="s">
         <v>57</v>
@@ -7799,154 +7799,154 @@
       <c r="C44" s="22"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22" t="n">
-        <v>3249640</v>
+        <v>3150106</v>
       </c>
       <c r="F44" s="22" t="n">
-        <v>3150106</v>
+        <v>3435</v>
       </c>
       <c r="G44" s="22" t="n">
-        <v>3435</v>
+        <v>3544</v>
       </c>
       <c r="H44" s="22" t="n">
-        <v>3544</v>
+        <v>3439</v>
       </c>
       <c r="I44" s="22" t="n">
-        <v>3439</v>
+        <v>3430</v>
       </c>
       <c r="J44" s="22" t="n">
-        <v>3430</v>
+        <v>3314</v>
       </c>
       <c r="K44" s="22" t="n">
-        <v>3314</v>
+        <v>3408</v>
       </c>
       <c r="L44" s="22" t="n">
-        <v>3408</v>
+        <v>3141</v>
       </c>
       <c r="M44" s="22" t="n">
-        <v>3141</v>
+        <v>3401</v>
       </c>
       <c r="N44" s="22" t="n">
-        <v>3401</v>
+        <v>3463</v>
       </c>
       <c r="O44" s="22" t="n">
-        <v>3463</v>
+        <v>3497</v>
       </c>
       <c r="P44" s="22" t="n">
-        <v>3497</v>
+        <v>3651</v>
       </c>
       <c r="Q44" s="22" t="n">
-        <v>3651</v>
+        <v>3606</v>
       </c>
       <c r="R44" s="22" t="n">
-        <v>3606</v>
+        <v>3742</v>
       </c>
       <c r="S44" s="22" t="n">
-        <v>3742</v>
+        <v>4024</v>
       </c>
       <c r="T44" s="22" t="n">
-        <v>4024</v>
+        <v>3666</v>
       </c>
       <c r="U44" s="22" t="n">
-        <v>3666</v>
+        <v>3618</v>
       </c>
       <c r="V44" s="22" t="n">
-        <v>3618</v>
+        <v>3587</v>
       </c>
       <c r="W44" s="22" t="n">
-        <v>3587</v>
+        <v>3592</v>
       </c>
       <c r="X44" s="22" t="n">
-        <v>3592</v>
+        <v>3616</v>
       </c>
       <c r="Y44" s="22" t="n">
-        <v>3616</v>
+        <v>3699</v>
       </c>
       <c r="Z44" s="22" t="n">
-        <v>3699</v>
+        <v>3894</v>
       </c>
       <c r="AA44" s="22" t="n">
-        <v>3894</v>
+        <v>4213</v>
       </c>
       <c r="AB44" s="22" t="n">
-        <v>4213</v>
+        <v>4476</v>
       </c>
       <c r="AC44" s="22" t="n">
-        <v>4476</v>
+        <v>4451</v>
       </c>
       <c r="AD44" s="22" t="n">
-        <v>4451</v>
+        <v>4669</v>
       </c>
       <c r="AE44" s="22" t="n">
-        <v>4669</v>
+        <v>4428</v>
       </c>
       <c r="AF44" s="22" t="n">
-        <v>4428</v>
+        <v>4270</v>
       </c>
       <c r="AG44" s="22" t="n">
+        <v>4039</v>
+      </c>
+      <c r="AH44" s="22" t="n">
+        <v>4084</v>
+      </c>
+      <c r="AI44" s="22" t="n">
+        <v>4165</v>
+      </c>
+      <c r="AJ44" s="22" t="n">
+        <v>4051</v>
+      </c>
+      <c r="AK44" s="22" t="n">
+        <v>4401</v>
+      </c>
+      <c r="AL44" s="22" t="n">
         <v>4270</v>
       </c>
-      <c r="AH44" s="22" t="n">
-        <v>4039</v>
-      </c>
-      <c r="AI44" s="22" t="n">
-        <v>4084</v>
-      </c>
-      <c r="AJ44" s="22" t="n">
-        <v>4165</v>
-      </c>
-      <c r="AK44" s="22" t="n">
-        <v>4051</v>
-      </c>
-      <c r="AL44" s="22" t="n">
-        <v>4401</v>
-      </c>
       <c r="AM44" s="22" t="n">
-        <v>4270</v>
+        <v>4433</v>
       </c>
       <c r="AN44" s="22" t="n">
-        <v>4433</v>
+        <v>4563</v>
       </c>
       <c r="AO44" s="22" t="n">
-        <v>4563</v>
+        <v>71580</v>
       </c>
       <c r="AP44" s="22" t="n">
-        <v>71580</v>
+        <v>4941</v>
       </c>
       <c r="AQ44" s="22" t="n">
-        <v>4941</v>
+        <v>4567</v>
       </c>
       <c r="AR44" s="22" t="n">
-        <v>4567</v>
+        <v>4397</v>
       </c>
       <c r="AS44" s="22" t="n">
-        <v>4397</v>
+        <v>4391</v>
       </c>
       <c r="AT44" s="22" t="n">
-        <v>4391</v>
+        <v>4255</v>
       </c>
       <c r="AU44" s="22" t="n">
-        <v>4255</v>
+        <v>4613</v>
       </c>
       <c r="AV44" s="22" t="n">
-        <v>4613</v>
+        <v>4890</v>
       </c>
       <c r="AW44" s="22" t="n">
-        <v>4890</v>
+        <v>4877</v>
       </c>
       <c r="AX44" s="22" t="n">
-        <v>4877</v>
+        <v>5148</v>
       </c>
       <c r="AY44" s="22" t="n">
-        <v>5148</v>
+        <v>5113</v>
       </c>
       <c r="AZ44" s="22" t="n">
-        <v>5113</v>
+        <v>5388</v>
       </c>
       <c r="BA44" s="22" t="n">
-        <v>5388</v>
+        <v>5169</v>
       </c>
       <c r="BB44" s="22" t="n">
-        <v>5169</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8392,11 +8392,11 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="n">
-        <v>69802</v>
-      </c>
-      <c r="F51" s="13" t="n">
         <v>63818</v>
       </c>
+      <c r="F51" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="G51" s="13" t="s">
         <v>57</v>
       </c>
@@ -8430,116 +8430,116 @@
       <c r="Q51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R51" s="13" t="s">
-        <v>57</v>
+      <c r="R51" s="13" t="n">
+        <v>97020</v>
       </c>
       <c r="S51" s="13" t="n">
-        <v>97020</v>
+        <v>94701</v>
       </c>
       <c r="T51" s="13" t="n">
-        <v>94701</v>
+        <v>100079</v>
       </c>
       <c r="U51" s="13" t="n">
-        <v>100079</v>
+        <v>114952</v>
       </c>
       <c r="V51" s="13" t="n">
-        <v>114952</v>
+        <v>122242</v>
       </c>
       <c r="W51" s="13" t="n">
-        <v>122242</v>
+        <v>130542</v>
       </c>
       <c r="X51" s="13" t="n">
-        <v>130542</v>
+        <v>132207</v>
       </c>
       <c r="Y51" s="13" t="n">
-        <v>132207</v>
+        <v>161205</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>161205</v>
+        <v>184256</v>
       </c>
       <c r="AA51" s="13" t="n">
-        <v>184256</v>
+        <v>190609</v>
       </c>
       <c r="AB51" s="13" t="n">
-        <v>190609</v>
+        <v>195537</v>
       </c>
       <c r="AC51" s="13" t="n">
-        <v>195537</v>
+        <v>196877</v>
       </c>
       <c r="AD51" s="13" t="n">
-        <v>196877</v>
+        <v>206654</v>
       </c>
       <c r="AE51" s="13" t="n">
-        <v>206654</v>
+        <v>209143</v>
       </c>
       <c r="AF51" s="13" t="n">
-        <v>209143</v>
+        <v>202448</v>
       </c>
       <c r="AG51" s="13" t="n">
-        <v>202448</v>
+        <v>204814</v>
       </c>
       <c r="AH51" s="13" t="n">
-        <v>204814</v>
+        <v>211610</v>
       </c>
       <c r="AI51" s="13" t="n">
-        <v>211610</v>
+        <v>263644</v>
       </c>
       <c r="AJ51" s="13" t="n">
-        <v>263644</v>
+        <v>257247</v>
       </c>
       <c r="AK51" s="13" t="n">
-        <v>257247</v>
+        <v>268641</v>
       </c>
       <c r="AL51" s="13" t="n">
-        <v>268641</v>
+        <v>273573</v>
       </c>
       <c r="AM51" s="13" t="n">
-        <v>273573</v>
+        <v>285215</v>
       </c>
       <c r="AN51" s="13" t="n">
-        <v>285215</v>
+        <v>296819</v>
       </c>
       <c r="AO51" s="13" t="n">
-        <v>296819</v>
+        <v>274514</v>
       </c>
       <c r="AP51" s="13" t="n">
-        <v>274514</v>
+        <v>296704</v>
       </c>
       <c r="AQ51" s="13" t="n">
-        <v>296704</v>
+        <v>291136</v>
       </c>
       <c r="AR51" s="13" t="n">
-        <v>291136</v>
+        <v>526080</v>
       </c>
       <c r="AS51" s="13" t="n">
-        <v>526080</v>
+        <v>512880</v>
       </c>
       <c r="AT51" s="13" t="n">
-        <v>512880</v>
+        <v>505800</v>
       </c>
       <c r="AU51" s="13" t="n">
-        <v>505800</v>
+        <v>517080</v>
       </c>
       <c r="AV51" s="13" t="n">
-        <v>517080</v>
+        <v>535440</v>
       </c>
       <c r="AW51" s="13" t="n">
-        <v>535440</v>
+        <v>561360</v>
       </c>
       <c r="AX51" s="13" t="n">
-        <v>561360</v>
+        <v>576360</v>
       </c>
       <c r="AY51" s="13" t="n">
-        <v>576360</v>
+        <v>587280</v>
       </c>
       <c r="AZ51" s="13" t="n">
-        <v>587280</v>
+        <v>589080</v>
       </c>
       <c r="BA51" s="13" t="n">
-        <v>589080</v>
+        <v>597000</v>
       </c>
       <c r="BB51" s="13" t="n">
-        <v>597000</v>
+        <v>653880</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8658,12 +8658,12 @@
       <c r="AN52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO52" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP52" s="16" t="n">
+      <c r="AO52" s="16" t="n">
         <v>81691</v>
       </c>
+      <c r="AP52" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AQ52" s="16" t="s">
         <v>57</v>
       </c>
@@ -8697,8 +8697,8 @@
       <c r="BA52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BB52" s="16" t="s">
-        <v>57</v>
+      <c r="BB52" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8712,8 +8712,8 @@
       <c r="E53" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F53" s="13" t="n">
-        <v>0</v>
+      <c r="F53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>57</v>
@@ -8871,8 +8871,8 @@
       <c r="E54" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="F54" s="16" t="n">
-        <v>0</v>
+      <c r="F54" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G54" s="16" t="s">
         <v>57</v>
@@ -9030,8 +9030,8 @@
       <c r="E55" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F55" s="13" t="n">
-        <v>0</v>
+      <c r="F55" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G55" s="13" t="s">
         <v>57</v>
@@ -9187,154 +9187,154 @@
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16" t="n">
-        <v>8821</v>
+        <v>484</v>
       </c>
       <c r="F56" s="16" t="n">
-        <v>484</v>
+        <v>3919</v>
       </c>
       <c r="G56" s="16" t="n">
-        <v>3919</v>
+        <v>18203</v>
       </c>
       <c r="H56" s="16" t="n">
-        <v>18203</v>
+        <v>855</v>
       </c>
       <c r="I56" s="16" t="n">
-        <v>855</v>
+        <v>18940</v>
       </c>
       <c r="J56" s="16" t="n">
-        <v>18940</v>
+        <v>10564</v>
       </c>
       <c r="K56" s="16" t="n">
-        <v>10564</v>
+        <v>15016</v>
       </c>
       <c r="L56" s="16" t="n">
-        <v>15016</v>
+        <v>2113</v>
       </c>
       <c r="M56" s="16" t="n">
-        <v>2113</v>
+        <v>9807</v>
       </c>
       <c r="N56" s="16" t="n">
-        <v>9807</v>
+        <v>13477</v>
       </c>
       <c r="O56" s="16" t="n">
-        <v>13477</v>
+        <v>4740</v>
       </c>
       <c r="P56" s="16" t="n">
-        <v>4740</v>
+        <v>7797</v>
       </c>
       <c r="Q56" s="16" t="n">
-        <v>7797</v>
+        <v>7518</v>
       </c>
       <c r="R56" s="16" t="n">
-        <v>7518</v>
+        <v>2081</v>
       </c>
       <c r="S56" s="16" t="n">
-        <v>2081</v>
+        <v>28240</v>
       </c>
       <c r="T56" s="16" t="n">
-        <v>28240</v>
+        <v>7245</v>
       </c>
       <c r="U56" s="16" t="n">
-        <v>7245</v>
+        <v>1269</v>
       </c>
       <c r="V56" s="16" t="n">
-        <v>1269</v>
+        <v>4623</v>
       </c>
       <c r="W56" s="16" t="n">
-        <v>4623</v>
+        <v>2040</v>
       </c>
       <c r="X56" s="16" t="n">
-        <v>2040</v>
+        <v>13208</v>
       </c>
       <c r="Y56" s="16" t="n">
-        <v>13208</v>
+        <v>6392</v>
       </c>
       <c r="Z56" s="16" t="n">
-        <v>6392</v>
+        <v>2337</v>
       </c>
       <c r="AA56" s="16" t="n">
-        <v>2337</v>
+        <v>13445</v>
       </c>
       <c r="AB56" s="16" t="n">
-        <v>13445</v>
+        <v>28191</v>
       </c>
       <c r="AC56" s="16" t="n">
-        <v>28191</v>
+        <v>20247</v>
       </c>
       <c r="AD56" s="16" t="n">
-        <v>20247</v>
+        <v>22148</v>
       </c>
       <c r="AE56" s="16" t="n">
-        <v>22148</v>
+        <v>13447</v>
       </c>
       <c r="AF56" s="16" t="n">
-        <v>13447</v>
+        <v>14990</v>
       </c>
       <c r="AG56" s="16" t="n">
-        <v>14990</v>
+        <v>3066</v>
       </c>
       <c r="AH56" s="16" t="n">
-        <v>3066</v>
+        <v>8808</v>
       </c>
       <c r="AI56" s="16" t="n">
-        <v>8808</v>
+        <v>13304</v>
       </c>
       <c r="AJ56" s="16" t="n">
-        <v>13304</v>
+        <v>8580</v>
       </c>
       <c r="AK56" s="16" t="n">
-        <v>8580</v>
+        <v>29052</v>
       </c>
       <c r="AL56" s="16" t="n">
-        <v>29052</v>
+        <v>10663</v>
       </c>
       <c r="AM56" s="16" t="n">
-        <v>10663</v>
+        <v>12075</v>
       </c>
       <c r="AN56" s="16" t="n">
-        <v>12075</v>
+        <v>9376</v>
       </c>
       <c r="AO56" s="16" t="n">
-        <v>9376</v>
+        <v>18227</v>
       </c>
       <c r="AP56" s="16" t="n">
-        <v>18227</v>
+        <v>28511</v>
       </c>
       <c r="AQ56" s="16" t="n">
-        <v>28511</v>
+        <v>1171</v>
       </c>
       <c r="AR56" s="16" t="n">
-        <v>1171</v>
+        <v>1366</v>
       </c>
       <c r="AS56" s="16" t="n">
-        <v>1366</v>
+        <v>15407</v>
       </c>
       <c r="AT56" s="16" t="n">
-        <v>15407</v>
+        <v>1993</v>
       </c>
       <c r="AU56" s="16" t="n">
-        <v>1993</v>
+        <v>42481</v>
       </c>
       <c r="AV56" s="16" t="n">
-        <v>42481</v>
+        <v>45582</v>
       </c>
       <c r="AW56" s="16" t="n">
-        <v>45582</v>
+        <v>22205</v>
       </c>
       <c r="AX56" s="16" t="n">
-        <v>22205</v>
+        <v>43699</v>
       </c>
       <c r="AY56" s="16" t="n">
-        <v>43699</v>
+        <v>23782</v>
       </c>
       <c r="AZ56" s="16" t="n">
-        <v>23782</v>
+        <v>59382</v>
       </c>
       <c r="BA56" s="16" t="n">
-        <v>59382</v>
+        <v>22930</v>
       </c>
       <c r="BB56" s="16" t="n">
-        <v>22930</v>
+        <v>4135</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9346,118 +9346,118 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="13" t="n">
         <v>2389</v>
       </c>
+      <c r="F57" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="G57" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H57" s="13" t="s">
-        <v>57</v>
+      <c r="H57" s="13" t="n">
+        <v>1835</v>
       </c>
       <c r="I57" s="13" t="n">
-        <v>1835</v>
+        <v>8035</v>
       </c>
       <c r="J57" s="13" t="n">
-        <v>8035</v>
+        <v>4635</v>
       </c>
       <c r="K57" s="13" t="n">
-        <v>4635</v>
+        <v>5970</v>
       </c>
       <c r="L57" s="13" t="n">
-        <v>5970</v>
+        <v>1260</v>
       </c>
       <c r="M57" s="13" t="n">
-        <v>1260</v>
+        <v>968</v>
       </c>
       <c r="N57" s="13" t="n">
-        <v>968</v>
+        <v>0</v>
       </c>
       <c r="O57" s="13" t="n">
         <v>0</v>
       </c>
       <c r="P57" s="13" t="n">
-        <v>0</v>
+        <v>7013</v>
       </c>
       <c r="Q57" s="13" t="n">
-        <v>7013</v>
+        <v>-5996</v>
       </c>
       <c r="R57" s="13" t="n">
-        <v>-5996</v>
+        <v>16483</v>
       </c>
       <c r="S57" s="13" t="n">
-        <v>16483</v>
+        <v>-5813</v>
       </c>
       <c r="T57" s="13" t="n">
-        <v>-5813</v>
+        <v>-542</v>
       </c>
       <c r="U57" s="13" t="n">
-        <v>-542</v>
+        <v>2232</v>
       </c>
       <c r="V57" s="13" t="n">
-        <v>2232</v>
+        <v>3072</v>
       </c>
       <c r="W57" s="13" t="n">
-        <v>3072</v>
+        <v>3360</v>
       </c>
       <c r="X57" s="13" t="n">
-        <v>3360</v>
+        <v>528</v>
       </c>
       <c r="Y57" s="13" t="n">
-        <v>528</v>
+        <v>3384</v>
       </c>
       <c r="Z57" s="13" t="n">
-        <v>3384</v>
+        <v>3648</v>
       </c>
       <c r="AA57" s="13" t="n">
-        <v>3648</v>
+        <v>-1488</v>
       </c>
       <c r="AB57" s="13" t="n">
-        <v>-1488</v>
+        <v>-4416</v>
       </c>
       <c r="AC57" s="13" t="n">
-        <v>-4416</v>
+        <v>-3312</v>
       </c>
       <c r="AD57" s="13" t="n">
-        <v>-3312</v>
+        <v>13296</v>
       </c>
       <c r="AE57" s="13" t="n">
-        <v>13296</v>
+        <v>-792</v>
       </c>
       <c r="AF57" s="13" t="n">
-        <v>-792</v>
+        <v>-1392</v>
       </c>
       <c r="AG57" s="13" t="n">
-        <v>-1392</v>
+        <v>2496</v>
       </c>
       <c r="AH57" s="13" t="n">
-        <v>2496</v>
+        <v>1824</v>
       </c>
       <c r="AI57" s="13" t="n">
-        <v>1824</v>
+        <v>144</v>
       </c>
       <c r="AJ57" s="13" t="n">
+        <v>1608</v>
+      </c>
+      <c r="AK57" s="13" t="n">
+        <v>-3912</v>
+      </c>
+      <c r="AL57" s="13" t="n">
         <v>144</v>
-      </c>
-      <c r="AK57" s="13" t="n">
-        <v>1608</v>
-      </c>
-      <c r="AL57" s="13" t="n">
-        <v>-3912</v>
       </c>
       <c r="AM57" s="13" t="n">
         <v>144</v>
       </c>
       <c r="AN57" s="13" t="n">
-        <v>144</v>
+        <v>408</v>
       </c>
       <c r="AO57" s="13" t="n">
-        <v>408</v>
-      </c>
-      <c r="AP57" s="13" t="n">
         <v>17996</v>
+      </c>
+      <c r="AP57" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ57" s="13" t="s">
         <v>57</v>
@@ -9507,44 +9507,44 @@
       <c r="E58" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F58" s="16" t="s">
-        <v>57</v>
+      <c r="F58" s="16" t="n">
+        <v>73414</v>
       </c>
       <c r="G58" s="16" t="n">
-        <v>73414</v>
+        <v>73394</v>
       </c>
       <c r="H58" s="16" t="n">
-        <v>73394</v>
+        <v>83660</v>
       </c>
       <c r="I58" s="16" t="n">
-        <v>83660</v>
+        <v>81350</v>
       </c>
       <c r="J58" s="16" t="n">
-        <v>81350</v>
+        <v>83639</v>
       </c>
       <c r="K58" s="16" t="n">
-        <v>83639</v>
+        <v>86762</v>
       </c>
       <c r="L58" s="16" t="n">
-        <v>86762</v>
+        <v>84323</v>
       </c>
       <c r="M58" s="16" t="n">
-        <v>84323</v>
+        <v>88807</v>
       </c>
       <c r="N58" s="16" t="n">
-        <v>88807</v>
+        <v>88250</v>
       </c>
       <c r="O58" s="16" t="n">
-        <v>88250</v>
+        <v>91544</v>
       </c>
       <c r="P58" s="16" t="n">
-        <v>91544</v>
+        <v>94301</v>
       </c>
       <c r="Q58" s="16" t="n">
-        <v>94301</v>
-      </c>
-      <c r="R58" s="16" t="n">
         <v>90818</v>
+      </c>
+      <c r="R58" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S58" s="16" t="s">
         <v>57</v>
@@ -9666,8 +9666,8 @@
       <c r="E59" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F59" s="13" t="n">
-        <v>0</v>
+      <c r="F59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>57</v>
@@ -9933,44 +9933,44 @@
       <c r="AO60" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP60" s="16" t="s">
-        <v>57</v>
+      <c r="AP60" s="16" t="n">
+        <v>10629</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>10629</v>
+        <v>17893</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>17893</v>
+        <v>19425</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>19425</v>
+        <v>201</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>201</v>
+        <v>1315</v>
       </c>
       <c r="AU60" s="16" t="n">
-        <v>1315</v>
+        <v>-21454</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>-21454</v>
+        <v>15567</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>15567</v>
+        <v>14518</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>14518</v>
+        <v>22714</v>
       </c>
       <c r="AY60" s="16" t="n">
-        <v>22714</v>
+        <v>25403</v>
       </c>
       <c r="AZ60" s="16" t="n">
-        <v>25403</v>
+        <v>25032</v>
       </c>
       <c r="BA60" s="16" t="n">
-        <v>25032</v>
+        <v>15897</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>15897</v>
+        <v>19743</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10149,44 +10149,44 @@
       <c r="AO62" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP62" s="13" t="s">
-        <v>57</v>
+      <c r="AP62" s="13" t="n">
+        <v>313919</v>
       </c>
       <c r="AQ62" s="13" t="n">
+        <v>520610</v>
+      </c>
+      <c r="AR62" s="13" t="n">
         <v>313919</v>
       </c>
-      <c r="AR62" s="13" t="n">
-        <v>520610</v>
-      </c>
       <c r="AS62" s="13" t="n">
-        <v>313919</v>
+        <v>487565</v>
       </c>
       <c r="AT62" s="13" t="n">
-        <v>487565</v>
+        <v>553851</v>
       </c>
       <c r="AU62" s="13" t="n">
-        <v>553851</v>
+        <v>632973</v>
       </c>
       <c r="AV62" s="13" t="n">
-        <v>632973</v>
+        <v>507101</v>
       </c>
       <c r="AW62" s="13" t="n">
-        <v>507101</v>
+        <v>505466</v>
       </c>
       <c r="AX62" s="13" t="n">
-        <v>505466</v>
+        <v>502446</v>
       </c>
       <c r="AY62" s="13" t="n">
-        <v>502446</v>
+        <v>504785</v>
       </c>
       <c r="AZ62" s="13" t="n">
-        <v>504785</v>
+        <v>572456</v>
       </c>
       <c r="BA62" s="13" t="n">
-        <v>572456</v>
+        <v>624149</v>
       </c>
       <c r="BB62" s="13" t="n">
-        <v>624149</v>
+        <v>688608</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10308,44 +10308,44 @@
       <c r="AO63" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP63" s="16" t="s">
-        <v>57</v>
+      <c r="AP63" s="16" t="n">
+        <v>-297308</v>
       </c>
       <c r="AQ63" s="16" t="n">
-        <v>-297308</v>
+        <v>-519550</v>
       </c>
       <c r="AR63" s="16" t="n">
-        <v>-519550</v>
+        <v>-254401</v>
       </c>
       <c r="AS63" s="16" t="n">
-        <v>-254401</v>
+        <v>-481687</v>
       </c>
       <c r="AT63" s="16" t="n">
-        <v>-481687</v>
+        <v>-501876</v>
       </c>
       <c r="AU63" s="16" t="n">
-        <v>-501876</v>
+        <v>-617799</v>
       </c>
       <c r="AV63" s="16" t="n">
-        <v>-617799</v>
+        <v>-461036</v>
       </c>
       <c r="AW63" s="16" t="n">
-        <v>-461036</v>
+        <v>-462756</v>
       </c>
       <c r="AX63" s="16" t="n">
-        <v>-462756</v>
+        <v>-473567</v>
       </c>
       <c r="AY63" s="16" t="n">
-        <v>-473567</v>
+        <v>-485156</v>
       </c>
       <c r="AZ63" s="16" t="n">
-        <v>-485156</v>
+        <v>-510333</v>
       </c>
       <c r="BA63" s="16" t="n">
-        <v>-510333</v>
+        <v>-606954</v>
       </c>
       <c r="BB63" s="16" t="n">
-        <v>-606954</v>
+        <v>-673171</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10467,44 +10467,44 @@
       <c r="AO64" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP64" s="13" t="s">
-        <v>57</v>
+      <c r="AP64" s="13" t="n">
+        <v>20192</v>
       </c>
       <c r="AQ64" s="13" t="n">
-        <v>20192</v>
+        <v>17883</v>
       </c>
       <c r="AR64" s="13" t="n">
-        <v>17883</v>
+        <v>18526</v>
       </c>
       <c r="AS64" s="13" t="n">
-        <v>18526</v>
+        <v>-3187</v>
       </c>
       <c r="AT64" s="13" t="n">
-        <v>-3187</v>
+        <v>-1243</v>
       </c>
       <c r="AU64" s="13" t="n">
-        <v>-1243</v>
+        <v>2330</v>
       </c>
       <c r="AV64" s="13" t="n">
-        <v>2330</v>
+        <v>1758</v>
       </c>
       <c r="AW64" s="13" t="n">
-        <v>1758</v>
+        <v>89499</v>
       </c>
       <c r="AX64" s="13" t="n">
-        <v>89499</v>
+        <v>3867</v>
       </c>
       <c r="AY64" s="13" t="n">
-        <v>3867</v>
+        <v>60643</v>
       </c>
       <c r="AZ64" s="13" t="n">
-        <v>60643</v>
+        <v>20153</v>
       </c>
       <c r="BA64" s="13" t="n">
-        <v>20153</v>
+        <v>12500</v>
       </c>
       <c r="BB64" s="13" t="n">
-        <v>12500</v>
+        <v>12100</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10620,8 +10620,8 @@
       <c r="T66" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U66" s="20" t="s">
-        <v>57</v>
+      <c r="U66" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V66" s="23" t="n">
         <v>0</v>
@@ -10683,8 +10683,8 @@
       <c r="AO66" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="AP66" s="23" t="n">
-        <v>0</v>
+      <c r="AP66" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AQ66" s="20" t="s">
         <v>57</v>
@@ -10836,8 +10836,8 @@
       <c r="T68" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U68" s="20" t="s">
-        <v>57</v>
+      <c r="U68" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V68" s="23" t="n">
         <v>0</v>
@@ -10899,8 +10899,8 @@
       <c r="AO68" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="AP68" s="23" t="n">
-        <v>0</v>
+      <c r="AP68" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="AQ68" s="20" t="s">
         <v>57</v>
@@ -11052,8 +11052,8 @@
       <c r="T70" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U70" s="13" t="s">
-        <v>57</v>
+      <c r="U70" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V70" s="13" t="n">
         <v>0</v>
@@ -11115,8 +11115,8 @@
       <c r="AO70" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP70" s="13" t="n">
-        <v>0</v>
+      <c r="AP70" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ70" s="13" t="s">
         <v>57</v>
@@ -11162,154 +11162,154 @@
       <c r="C71" s="22"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22" t="n">
-        <v>78623</v>
+        <v>66691</v>
       </c>
       <c r="F71" s="22" t="n">
-        <v>66691</v>
+        <v>77333</v>
       </c>
       <c r="G71" s="22" t="n">
-        <v>77333</v>
+        <v>91597</v>
       </c>
       <c r="H71" s="22" t="n">
-        <v>91597</v>
+        <v>86350</v>
       </c>
       <c r="I71" s="22" t="n">
-        <v>86350</v>
+        <v>108325</v>
       </c>
       <c r="J71" s="22" t="n">
-        <v>108325</v>
+        <v>98838</v>
       </c>
       <c r="K71" s="22" t="n">
-        <v>98838</v>
+        <v>107748</v>
       </c>
       <c r="L71" s="22" t="n">
-        <v>107748</v>
+        <v>87696</v>
       </c>
       <c r="M71" s="22" t="n">
-        <v>87696</v>
+        <v>99582</v>
       </c>
       <c r="N71" s="22" t="n">
-        <v>99582</v>
+        <v>101727</v>
       </c>
       <c r="O71" s="22" t="n">
-        <v>101727</v>
+        <v>96284</v>
       </c>
       <c r="P71" s="22" t="n">
-        <v>96284</v>
+        <v>109111</v>
       </c>
       <c r="Q71" s="22" t="n">
-        <v>109111</v>
+        <v>92340</v>
       </c>
       <c r="R71" s="22" t="n">
-        <v>92340</v>
+        <v>115584</v>
       </c>
       <c r="S71" s="22" t="n">
-        <v>115584</v>
+        <v>117128</v>
       </c>
       <c r="T71" s="22" t="n">
-        <v>117128</v>
+        <v>106782</v>
       </c>
       <c r="U71" s="22" t="n">
-        <v>106782</v>
+        <v>118453</v>
       </c>
       <c r="V71" s="22" t="n">
-        <v>118453</v>
+        <v>129937</v>
       </c>
       <c r="W71" s="22" t="n">
-        <v>129937</v>
+        <v>135942</v>
       </c>
       <c r="X71" s="22" t="n">
-        <v>135942</v>
+        <v>145943</v>
       </c>
       <c r="Y71" s="22" t="n">
-        <v>145943</v>
+        <v>170981</v>
       </c>
       <c r="Z71" s="22" t="n">
-        <v>170981</v>
+        <v>190241</v>
       </c>
       <c r="AA71" s="22" t="n">
-        <v>190241</v>
+        <v>202566</v>
       </c>
       <c r="AB71" s="22" t="n">
-        <v>202566</v>
+        <v>219312</v>
       </c>
       <c r="AC71" s="22" t="n">
-        <v>219312</v>
+        <v>213812</v>
       </c>
       <c r="AD71" s="22" t="n">
-        <v>213812</v>
+        <v>242098</v>
       </c>
       <c r="AE71" s="22" t="n">
-        <v>242098</v>
+        <v>221798</v>
       </c>
       <c r="AF71" s="22" t="n">
-        <v>221798</v>
+        <v>216046</v>
       </c>
       <c r="AG71" s="22" t="n">
-        <v>216046</v>
+        <v>210376</v>
       </c>
       <c r="AH71" s="22" t="n">
-        <v>210376</v>
+        <v>222242</v>
       </c>
       <c r="AI71" s="22" t="n">
-        <v>222242</v>
+        <v>277092</v>
       </c>
       <c r="AJ71" s="22" t="n">
-        <v>277092</v>
+        <v>267435</v>
       </c>
       <c r="AK71" s="22" t="n">
-        <v>267435</v>
+        <v>293781</v>
       </c>
       <c r="AL71" s="22" t="n">
-        <v>293781</v>
+        <v>284380</v>
       </c>
       <c r="AM71" s="22" t="n">
-        <v>284380</v>
+        <v>297434</v>
       </c>
       <c r="AN71" s="22" t="n">
-        <v>297434</v>
+        <v>306603</v>
       </c>
       <c r="AO71" s="22" t="n">
-        <v>306603</v>
+        <v>392428</v>
       </c>
       <c r="AP71" s="22" t="n">
-        <v>392428</v>
+        <v>372647</v>
       </c>
       <c r="AQ71" s="22" t="n">
-        <v>372647</v>
+        <v>329143</v>
       </c>
       <c r="AR71" s="22" t="n">
-        <v>329143</v>
+        <v>624915</v>
       </c>
       <c r="AS71" s="22" t="n">
-        <v>624915</v>
+        <v>531179</v>
       </c>
       <c r="AT71" s="22" t="n">
-        <v>531179</v>
+        <v>559840</v>
       </c>
       <c r="AU71" s="22" t="n">
-        <v>559840</v>
+        <v>555611</v>
       </c>
       <c r="AV71" s="22" t="n">
-        <v>555611</v>
+        <v>644412</v>
       </c>
       <c r="AW71" s="22" t="n">
-        <v>644412</v>
+        <v>730292</v>
       </c>
       <c r="AX71" s="22" t="n">
-        <v>730292</v>
+        <v>675519</v>
       </c>
       <c r="AY71" s="22" t="n">
-        <v>675519</v>
+        <v>716737</v>
       </c>
       <c r="AZ71" s="22" t="n">
-        <v>716737</v>
+        <v>755770</v>
       </c>
       <c r="BA71" s="22" t="n">
-        <v>755770</v>
+        <v>665522</v>
       </c>
       <c r="BB71" s="22" t="n">
-        <v>665522</v>
+        <v>705295</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11755,11 +11755,11 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13" t="n">
-        <v>21481</v>
-      </c>
-      <c r="F78" s="13" t="n">
         <v>20259</v>
       </c>
+      <c r="F78" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="G78" s="13" t="s">
         <v>57</v>
       </c>
@@ -11793,86 +11793,86 @@
       <c r="Q78" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R78" s="13" t="s">
-        <v>57</v>
+      <c r="R78" s="13" t="n">
+        <v>26157994</v>
       </c>
       <c r="S78" s="13" t="n">
-        <v>26157994</v>
+        <v>25924172</v>
       </c>
       <c r="T78" s="13" t="n">
-        <v>25924172</v>
+        <v>27994126</v>
       </c>
       <c r="U78" s="13" t="n">
-        <v>27994126</v>
+        <v>31975522</v>
       </c>
       <c r="V78" s="13" t="n">
-        <v>31975522</v>
+        <v>34708120</v>
       </c>
       <c r="W78" s="13" t="n">
-        <v>34708120</v>
+        <v>36700028</v>
       </c>
       <c r="X78" s="13" t="n">
-        <v>36700028</v>
+        <v>38221162</v>
       </c>
       <c r="Y78" s="13" t="n">
-        <v>38221162</v>
+        <v>44519470</v>
       </c>
       <c r="Z78" s="13" t="n">
-        <v>44519470</v>
+        <v>47821438</v>
       </c>
       <c r="AA78" s="13" t="n">
-        <v>47821438</v>
+        <v>48036542</v>
       </c>
       <c r="AB78" s="13" t="n">
-        <v>48036542</v>
+        <v>47368459</v>
       </c>
       <c r="AC78" s="13" t="n">
-        <v>47368459</v>
+        <v>46953732</v>
       </c>
       <c r="AD78" s="13" t="n">
-        <v>46953732</v>
+        <v>47052368</v>
       </c>
       <c r="AE78" s="13" t="n">
-        <v>47052368</v>
+        <v>49152291</v>
       </c>
       <c r="AF78" s="13" t="n">
-        <v>49152291</v>
+        <v>49680491</v>
       </c>
       <c r="AG78" s="13" t="n">
-        <v>49680491</v>
+        <v>51306112</v>
       </c>
       <c r="AH78" s="13" t="n">
-        <v>51306112</v>
+        <v>53181704</v>
       </c>
       <c r="AI78" s="13" t="n">
-        <v>53181704</v>
+        <v>65681116</v>
       </c>
       <c r="AJ78" s="13" t="n">
-        <v>65681116</v>
+        <v>65191840</v>
       </c>
       <c r="AK78" s="13" t="n">
-        <v>65191840</v>
+        <v>65618222</v>
       </c>
       <c r="AL78" s="13" t="n">
-        <v>65618222</v>
+        <v>66128354</v>
       </c>
       <c r="AM78" s="13" t="n">
-        <v>66128354</v>
+        <v>66561260</v>
       </c>
       <c r="AN78" s="13" t="n">
-        <v>66561260</v>
+        <v>66836073</v>
       </c>
       <c r="AO78" s="13" t="n">
-        <v>66836073</v>
+        <v>66036565</v>
       </c>
       <c r="AP78" s="13" t="n">
-        <v>66036565</v>
+        <v>64000000</v>
       </c>
       <c r="AQ78" s="13" t="n">
         <v>64000000</v>
       </c>
       <c r="AR78" s="13" t="n">
-        <v>64000000</v>
+        <v>120000000</v>
       </c>
       <c r="AS78" s="13" t="n">
         <v>120000000</v>
@@ -12021,11 +12021,11 @@
       <c r="AN79" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AO79" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP79" s="16" t="n">
+      <c r="AO79" s="16" t="n">
         <v>1215043</v>
+      </c>
+      <c r="AP79" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ79" s="16" t="s">
         <v>57</v>
@@ -12075,8 +12075,8 @@
       <c r="E80" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F80" s="13" t="n">
-        <v>0</v>
+      <c r="F80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>57</v>
@@ -12234,8 +12234,8 @@
       <c r="E81" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="F81" s="16" t="n">
-        <v>0</v>
+      <c r="F81" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G81" s="16" t="s">
         <v>57</v>
@@ -12393,8 +12393,8 @@
       <c r="E82" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F82" s="13" t="n">
-        <v>0</v>
+      <c r="F82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>57</v>
@@ -12550,154 +12550,154 @@
       </c>
       <c r="D83" s="16"/>
       <c r="E83" s="16" t="n">
-        <v>71715447</v>
+        <v>80666667</v>
       </c>
       <c r="F83" s="16" t="n">
-        <v>80666667</v>
+        <v>105918919</v>
       </c>
       <c r="G83" s="16" t="n">
-        <v>105918919</v>
+        <v>93829897</v>
       </c>
       <c r="H83" s="16" t="n">
-        <v>93829897</v>
+        <v>45000000</v>
       </c>
       <c r="I83" s="16" t="n">
-        <v>45000000</v>
+        <v>81991342</v>
       </c>
       <c r="J83" s="16" t="n">
-        <v>81991342</v>
+        <v>81891473</v>
       </c>
       <c r="K83" s="16" t="n">
-        <v>81891473</v>
+        <v>81167568</v>
       </c>
       <c r="L83" s="16" t="n">
-        <v>81167568</v>
+        <v>68161290</v>
       </c>
       <c r="M83" s="16" t="n">
-        <v>68161290</v>
+        <v>74295455</v>
       </c>
       <c r="N83" s="16" t="n">
-        <v>74295455</v>
+        <v>68760204</v>
       </c>
       <c r="O83" s="16" t="n">
-        <v>68760204</v>
+        <v>67714286</v>
       </c>
       <c r="P83" s="16" t="n">
-        <v>67714286</v>
+        <v>63909836</v>
       </c>
       <c r="Q83" s="16" t="n">
-        <v>63909836</v>
+        <v>69611111</v>
       </c>
       <c r="R83" s="16" t="n">
-        <v>69611111</v>
+        <v>63060606</v>
       </c>
       <c r="S83" s="16" t="n">
-        <v>63060606</v>
+        <v>76118598</v>
       </c>
       <c r="T83" s="16" t="n">
-        <v>76118598</v>
+        <v>79615385</v>
       </c>
       <c r="U83" s="16" t="n">
-        <v>79615385</v>
+        <v>55173913</v>
       </c>
       <c r="V83" s="16" t="n">
-        <v>55173913</v>
+        <v>71123077</v>
       </c>
       <c r="W83" s="16" t="n">
-        <v>71123077</v>
+        <v>58285714</v>
       </c>
       <c r="X83" s="16" t="n">
-        <v>58285714</v>
+        <v>84127389</v>
       </c>
       <c r="Y83" s="16" t="n">
-        <v>84127389</v>
+        <v>81948718</v>
       </c>
       <c r="Z83" s="16" t="n">
-        <v>81948718</v>
+        <v>57000000</v>
       </c>
       <c r="AA83" s="16" t="n">
-        <v>57000000</v>
+        <v>54877551</v>
       </c>
       <c r="AB83" s="16" t="n">
-        <v>54877551</v>
+        <v>81008621</v>
       </c>
       <c r="AC83" s="16" t="n">
-        <v>81008621</v>
+        <v>78476744</v>
       </c>
       <c r="AD83" s="16" t="n">
-        <v>78476744</v>
+        <v>79956679</v>
       </c>
       <c r="AE83" s="16" t="n">
-        <v>79956679</v>
+        <v>77728324</v>
       </c>
       <c r="AF83" s="16" t="n">
-        <v>77728324</v>
+        <v>76871795</v>
       </c>
       <c r="AG83" s="16" t="n">
-        <v>76871795</v>
+        <v>65234043</v>
       </c>
       <c r="AH83" s="16" t="n">
-        <v>65234043</v>
+        <v>83885714</v>
       </c>
       <c r="AI83" s="16" t="n">
-        <v>83885714</v>
+        <v>88105960</v>
       </c>
       <c r="AJ83" s="16" t="n">
-        <v>88105960</v>
+        <v>81714286</v>
       </c>
       <c r="AK83" s="16" t="n">
-        <v>81714286</v>
+        <v>94631922</v>
       </c>
       <c r="AL83" s="16" t="n">
-        <v>94631922</v>
+        <v>80172932</v>
       </c>
       <c r="AM83" s="16" t="n">
-        <v>80172932</v>
+        <v>81587838</v>
       </c>
       <c r="AN83" s="16" t="n">
-        <v>81587838</v>
+        <v>76852459</v>
       </c>
       <c r="AO83" s="16" t="n">
-        <v>76852459</v>
+        <v>95931579</v>
       </c>
       <c r="AP83" s="16" t="n">
-        <v>95931579</v>
+        <v>93478689</v>
       </c>
       <c r="AQ83" s="16" t="n">
-        <v>93478689</v>
+        <v>65055556</v>
       </c>
       <c r="AR83" s="16" t="n">
-        <v>65055556</v>
+        <v>105076923</v>
       </c>
       <c r="AS83" s="16" t="n">
-        <v>105076923</v>
+        <v>131683761</v>
       </c>
       <c r="AT83" s="16" t="n">
-        <v>131683761</v>
+        <v>49825000</v>
       </c>
       <c r="AU83" s="16" t="n">
-        <v>49825000</v>
+        <v>139740132</v>
       </c>
       <c r="AV83" s="16" t="n">
-        <v>139740132</v>
+        <v>106500000</v>
       </c>
       <c r="AW83" s="16" t="n">
-        <v>106500000</v>
+        <v>111582915</v>
       </c>
       <c r="AX83" s="16" t="n">
-        <v>111582915</v>
+        <v>126663768</v>
       </c>
       <c r="AY83" s="16" t="n">
-        <v>126663768</v>
+        <v>108593607</v>
       </c>
       <c r="AZ83" s="16" t="n">
-        <v>108593607</v>
+        <v>123970772</v>
       </c>
       <c r="BA83" s="16" t="n">
-        <v>123970772</v>
+        <v>118195876</v>
       </c>
       <c r="BB83" s="16" t="n">
-        <v>118195876</v>
+        <v>118142857</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12711,14 +12711,14 @@
       <c r="E84" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F84" s="13" t="n">
-        <v>0</v>
+      <c r="F84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H84" s="13" t="s">
-        <v>57</v>
+      <c r="H84" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="I84" s="13" t="n">
         <v>0</v>
@@ -12744,8 +12744,8 @@
       <c r="P84" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="Q84" s="13" t="n">
-        <v>0</v>
+      <c r="Q84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="R84" s="13" t="s">
         <v>57</v>
@@ -12870,44 +12870,44 @@
       <c r="E85" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F85" s="16" t="s">
-        <v>57</v>
+      <c r="F85" s="16" t="n">
+        <v>21605062</v>
       </c>
       <c r="G85" s="16" t="n">
-        <v>21605062</v>
+        <v>21908657</v>
       </c>
       <c r="H85" s="16" t="n">
-        <v>21908657</v>
+        <v>24461988</v>
       </c>
       <c r="I85" s="16" t="n">
-        <v>24461988</v>
+        <v>25429822</v>
       </c>
       <c r="J85" s="16" t="n">
-        <v>25429822</v>
+        <v>26260283</v>
       </c>
       <c r="K85" s="16" t="n">
-        <v>26260283</v>
+        <v>26919640</v>
       </c>
       <c r="L85" s="16" t="n">
-        <v>26919640</v>
+        <v>27113505</v>
       </c>
       <c r="M85" s="16" t="n">
-        <v>27113505</v>
+        <v>27166412</v>
       </c>
       <c r="N85" s="16" t="n">
-        <v>27166412</v>
+        <v>27012550</v>
       </c>
       <c r="O85" s="16" t="n">
-        <v>27012550</v>
+        <v>26712577</v>
       </c>
       <c r="P85" s="16" t="n">
-        <v>26712577</v>
+        <v>26721734</v>
       </c>
       <c r="Q85" s="16" t="n">
-        <v>26721734</v>
-      </c>
-      <c r="R85" s="16" t="n">
         <v>25962836</v>
+      </c>
+      <c r="R85" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="S85" s="16" t="s">
         <v>57</v>
@@ -13029,8 +13029,8 @@
       <c r="E86" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F86" s="13" t="n">
-        <v>0</v>
+      <c r="F86" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>57</v>
